--- a/data_processing_elements-AWH.xlsx
+++ b/data_processing_elements-AWH.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ca058780ebd4867/ProPASS/dpe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atrottier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{EAFA0F5D-D41C-4C73-B15F-460B5AC822F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D8F8AE9-A4ED-4741-8685-7B14B522318E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A571A67F-86D7-46CD-BFC1-FA0F667480DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1392" windowWidth="23256" windowHeight="12456" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_processing_elements!$A$1:$U$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_processing_elements!$A$1:$S$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="484">
   <si>
     <t>index</t>
   </si>
@@ -96,12 +96,6 @@
   </si>
   <si>
     <t>Mlstr_harmo::algorithm</t>
-  </si>
-  <si>
-    <t>comment_question_for_cohort</t>
-  </si>
-  <si>
-    <t>response_from_cohort</t>
   </si>
   <si>
     <t>adm_id</t>
@@ -651,9 +645,6 @@
   <si>
     <t>0 = No ; 
 1 = Yes</t>
-  </si>
-  <si>
-    <t>undetermined</t>
   </si>
   <si>
     <t>dis_musculoskeletal</t>
@@ -994,9 +985,6 @@
     <t>AWH</t>
   </si>
   <si>
-    <t>IDAlias</t>
-  </si>
-  <si>
     <t>Participant identification code. 6 digit numeric</t>
   </si>
   <si>
@@ -1009,9 +997,6 @@
     <t>Date attended the clinic. Date participant attended the clinic. Format is dd/mm/yy</t>
   </si>
   <si>
-    <t>Please confirm the date format</t>
-  </si>
-  <si>
     <t>Cohort of women</t>
   </si>
   <si>
@@ -1024,795 +1009,800 @@
     <t>Participant's age in years. Question is "What is your age (in years?".</t>
   </si>
   <si>
-    <t>Y8Q125</t>
-  </si>
-  <si>
     <t>Participants highest level of education</t>
   </si>
   <si>
     <t>Participant highest level of education. Self-reported. Questionnaire item: What is the highest level of qualification you have completed? Response options: No formal qualifications, Year 10 or equivalent (eg School Certificate), Year 12 or equivalent (eg Higher School Certificate), Trade / apprenticeship (eg hairdresser, chef), Certificate / diploma (eg child care, technician), University degree, Higher university degree (eg Grad Dip, Masters, PhD).</t>
   </si>
   <si>
-    <t>1=No formal qualifications;
-2= Year 10 or equivalent;
-3= Year 12 or equivalent;
-4= Trade/apprenticeship;
-5= Certificate/Diploma;
-6= University degree;
-7= Higher university degree;
+    <t>recode(1=0; 2=0; 3=1; 4=2; 5=2; 6=3; 7=3; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>Employment status; Employment classfication</t>
+  </si>
+  <si>
+    <t>Employment status. Self-reported. Question is "Are you currently unemployed, and actively seeking work?" Response options are no, yes unemployed for less than 6 months and yes unemployed for 6 months or more</t>
+  </si>
+  <si>
+    <t>Employment classfication</t>
+  </si>
+  <si>
+    <t>recode(1 = 'Manager or administrator'; 2 = 'Professional'; 3 = 'Associate professional'; 4 = 'Tradesperson or related worker'; 5 = 'Advanced clerical or service worker'; 6 = 'Intermediate clerical, sales/service worker'; 7 = 'Intermediate production or transport worker'; 8 = 'Elementary clerical, sales or service worker'; 9 = 'Labourer or related worker'; 10 = 'No paid job'; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>Marital status</t>
+  </si>
+  <si>
+    <t>Marital status. Self-reported. Question is "What is your present marital status?". Response options are never married, Married (opposite sex), Married (same sex), De facto (opposite sex), De facto (same sex), Separated, Divorced, Widowed.</t>
+  </si>
+  <si>
+    <t>recode(1=0; 2=1; 3=1; 7=2; 8=2; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>recode(1=0; 2=1; 3=1; 4=1; 5=1; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>htcm</t>
+  </si>
+  <si>
+    <t>Height in cm</t>
+  </si>
+  <si>
+    <t>Height in cm. Participants height was measured at clinic using stadiometer. Adapted from protocols of the Australian Health Survey and the Centre for Disease Control and Prevention. Interviewers encouraged respondents to remove their shoes and any heavy clothing, e.g. jumpers, before they took measurements, however, this was voluntary.</t>
+  </si>
+  <si>
+    <t>.=missing</t>
+  </si>
+  <si>
+    <t>ifelse(!is.na(htcm), 2, NA)</t>
+  </si>
+  <si>
+    <t>wtkg</t>
+  </si>
+  <si>
+    <t>Weight in kg</t>
+  </si>
+  <si>
+    <t>Weight in kg. Participants weight was measured at clinic using digital scales. Adapted from protocols of the Australian Health Survey and the Centre for Disease Control and Prevention. Interviewers encouraged respondents to remove their shoes and any heavy clothing, e.g. jumpers, before they took measurements, however, this was voluntary.</t>
+  </si>
+  <si>
+    <t>ifelse(!is.na(wtkg), 2, NA)</t>
+  </si>
+  <si>
+    <t>bmi</t>
+  </si>
+  <si>
+    <t>Body mass index. BMI was calculated as weight in kg divided by squared height in meters.</t>
+  </si>
+  <si>
+    <t>Waist circumference (mm) - Measurement 1, 2 and 3</t>
+  </si>
+  <si>
+    <t>Waist circumference (mm) - Measurement 1, 2 and 3. The waist circumference was measured at the midpoint between the bottom of the last palpable rib and top of the iliac crest. All circumferences were measured to the nearest millimetre in duplicate. Where the difference between the two measurements exceeded 5mm, a third measurement was performed.</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Blood pressure - Systolic (mmHg) - Measurement 1, 2 and 3</t>
+  </si>
+  <si>
+    <t>Blood pressure - Systolic (mmHg) - Measurement 1, 2, and 3. Measured using Automated blood pressure monitor.After resting in a seated position for 5 minutes, three measurements of systolic and diastolic blood pressures and heart rate, interspersed by 1-2 minutes,were recorded using an automated blood pressure monitor.</t>
+  </si>
+  <si>
+    <t>Blood pressure - Diastolic (mmHg) - Measurement 1, 2 and 3</t>
+  </si>
+  <si>
+    <t>Blood pressure - Diastolic (mmHg) - Measurement 1, 2 and 3. Measured using Automated blood pressure monitor.After resting in a seated position for 5 minutes, three measurements of systolic and diastolic blood pressures and heart rate, interspersed by 1-2 minutes,were recorded using an automated blood pressure monitor.</t>
+  </si>
+  <si>
+    <t>Resting heart rate (beats per min) - Measurement 1, 2 and 3</t>
+  </si>
+  <si>
+    <t>Resting heart rate (beats per min) - Measurement 1, 2 and 3. Measured using Automated blood pressure monitor.After resting in a seated position for 5 minutes, three measurements of systolic and diastolic blood pressures and heart rate, interspersed by 1-2 minutes,were recorded using an automated blood pressure monitor.</t>
+  </si>
+  <si>
+    <t>Average of 3 measures preceded by a 5 minutes rest (1-2 minutes between each measure)</t>
+  </si>
+  <si>
+    <t>All participants of this cohort were non-fasting</t>
+  </si>
+  <si>
+    <t>HbA1c (IFCC) mmol/mol</t>
+  </si>
+  <si>
+    <t>HbA1c (IFCC) mmol/mol. HbA1c expressed as a value in mmol/mol (IFCC unit).Non-fasting venous blood samples were collected by research personnel or by pathology phlebotomy service providers. BD Vacutainer® EDTA (for plasma and HbA1c testing), SST II (for serum and cholesterol testing), and plain (for serum) tubes were used to collect blood. SST II and plain tubes were stored at 4°C and EDTA tubes at room temperature for up to 72 hours before processing. Total, LDL-, VLDL- and HDL-cholesterol, and glycated haemoglobin A1c (HbA1c) were measured using routine autoanalyser methods.</t>
+  </si>
+  <si>
+    <t>Cholesterol mmol/L</t>
+  </si>
+  <si>
+    <t>Cholesterol mmol/L.Non-fasting venous blood samples were collected by research personnel or by pathology phlebotomy service providers. BD Vacutainer® EDTA (for plasma and HbA1c testing), SST II (for serum and cholesterol testing), and plain (for serum) tubes were used to collect blood. SST II and plain tubes were stored at 4°C and EDTA tubes at room temperature for up to 72 hours before processing. Total, LDL-, VLDL- and HDL-cholesterol, and glycated haemoglobin A1c (HbA1c) were measured using routine autoanalyser methods.</t>
+  </si>
+  <si>
+    <t>HDL Cholesterol mmol/L</t>
+  </si>
+  <si>
+    <t>HDL Cholesterol mmol/L.Non-fasting venous blood samples were collected by research personnel or by pathology phlebotomy service providers. BD Vacutainer® EDTA (for plasma and HbA1c testing), SST II (for serum and cholesterol testing), and plain (for serum) tubes were used to collect blood. SST II and plain tubes were stored at 4°C and EDTA tubes at room temperature for up to 72 hours before processing. Total, LDL-, VLDL- and HDL-cholesterol, and glycated haemoglobin A1c (HbA1c) were measured using routine autoanalyser methods.</t>
+  </si>
+  <si>
+    <t>LDL Cholesterol mmol/L</t>
+  </si>
+  <si>
+    <t>LDL Cholesterol mmol/L.Non-fasting venous blood samples were collected by research personnel or by pathology phlebotomy service providers. BD Vacutainer® EDTA (for plasma and HbA1c testing), SST II (for serum and cholesterol testing), and plain (for serum) tubes were used to collect blood. SST II and plain tubes were stored at 4°C and EDTA tubes at room temperature for up to 72 hours before processing. Total, LDL-, VLDL- and HDL-cholesterol, and glycated haemoglobin A1c (HbA1c) were measured using routine autoanalyser methods.</t>
+  </si>
+  <si>
+    <t>Cholesterol mmol/L ; HDL Cholesterol mmol/L ; Triglycerides mmol/L</t>
+  </si>
+  <si>
+    <t>Cholesterol mmol/L.Non-fasting venous blood samples were collected by research personnel or by pathology phlebotomy service providers. BD Vacutainer® EDTA (for plasma and HbA1c testing), SST II (for serum and cholesterol testing), and plain (for serum) tubes were used to collect blood. SST II and plain tubes were stored at 4°C and EDTA tubes at room temperature for up to 72 hours before processing. Total, LDL-, VLDL- and HDL-cholesterol, and glycated haemoglobin A1c (HbA1c) were measured using routine autoanalyser methods. ; HDL Cholesterol mmol/L.Non-fasting venous blood samples were collected by research personnel or by pathology phlebotomy service providers. BD Vacutainer® EDTA (for plasma and HbA1c testing), SST II (for serum and cholesterol testing), and plain (for serum) tubes were used to collect blood. SST II and plain tubes were stored at 4°C and EDTA tubes at room temperature for up to 72 hours before processing. Total, LDL-, VLDL- and HDL-cholesterol, and glycated haemoglobin A1c (HbA1c) were measured using routine autoanalyser methods. ; Triglycerides mmol/L.Non-fasting venous blood samples were collected by research personnel or by pathology phlebotomy service providers. BD Vacutainer® EDTA (for plasma and HbA1c testing), SST II (for serum and cholesterol testing), and plain (for serum) tubes were used to collect blood. SST II and plain tubes were stored at 4°C and EDTA tubes at room temperature for up to 72 hours before processing. Total, LDL-, VLDL- and HDL-cholesterol, and glycated haemoglobin A1c (HbA1c) were measured using routine autoanalyser methods.</t>
+  </si>
+  <si>
+    <t>.=missing ; .=missing ; .=missing</t>
+  </si>
+  <si>
+    <t>mmol/L ; mmol/L ; mmol/L</t>
+  </si>
+  <si>
+    <t>Friedewald equation was used https://lipidworld.biomedcentral.com/articles/10.1186/1476-511X-9-27</t>
+  </si>
+  <si>
+    <t>Triglycerides mmol/L</t>
+  </si>
+  <si>
+    <t>Triglycerides mmol/L.Non-fasting venous blood samples were collected by research personnel or by pathology phlebotomy service providers. BD Vacutainer® EDTA (for plasma and HbA1c testing), SST II (for serum and cholesterol testing), and plain (for serum) tubes were used to collect blood. SST II and plain tubes were stored at 4°C and EDTA tubes at room temperature for up to 72 hours before processing. Total, LDL-, VLDL- and HDL-cholesterol, and glycated haemoglobin A1c (HbA1c) were measured using routine autoanalyser methods.</t>
+  </si>
+  <si>
+    <t>Fruit intake</t>
+  </si>
+  <si>
+    <t>recode(1=0; 2=NA; 3=80; 4=160; 5=240; 6=NA; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>Vegetable intake</t>
+  </si>
+  <si>
+    <t>recode(1=0; 2=NA; 3=80; 4=160; 5=240; 6=320; 7=NA; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>Alcohol frequency; Standard drinks</t>
+  </si>
+  <si>
+    <t>Alcohol frequency. Self-reported. Question is "How often do you usually drink alcohol?" Response options are I never drink alcohol, less than once a month, less than once a week. On 1 or 2 days a week, on 3 or 4 days a week, on 5 or 6 days a week, everyday; Standard drinks. Self-reported. Question is "When you drink alcohol, how many standard drinks do you usually have?". Response options are do not drink alcohol, 1 or 2 drinks per day, 3 or 4 drinks per day, 5 to 8 drinks per day, 9 or more drinks per day.</t>
+  </si>
+  <si>
+    <t>Alcohol frequency</t>
+  </si>
+  <si>
+    <t>Alcohol frequency. Self-reported. Question is "How often do you usually drink alcohol?" Response options are I never drink alcohol, less than once a month, less than once a week. On 1 or 2 days a week, on 3 or 4 days a week, on 5 or 6 days a week, everyday</t>
+  </si>
+  <si>
+    <t>4 times a week is considered as weekly</t>
+  </si>
+  <si>
+    <t>Daily smoking</t>
+  </si>
+  <si>
+    <t>Daily smoking. Question is "Have you ever smoked daily?". Response options are yes, no, daily smoker, not smoked 100 cig in total</t>
+  </si>
+  <si>
+    <t>recode(1=1; 2=0; 3=2; 4=0; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>recode(1=NA; 2=NA; 3=2; 4=NA; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>Number of cigarettes smoked_daily ; Number of cigarettes smoked_weekly.</t>
+  </si>
+  <si>
+    <t>.=missing ; .=missing</t>
+  </si>
+  <si>
+    <t>y8sfhealth</t>
+  </si>
+  <si>
+    <t>General health</t>
+  </si>
+  <si>
+    <t>General health. Self-rated health by participants. Question was "In general, how would you say your health is? Respons options included excellent, very good, good, fair and poor.</t>
+  </si>
+  <si>
+    <t>recode(1=4; 2=4; 3=3; 4=2; 5=1; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>The category "No" was not produced. Collected information about treated or diagnosed heart disease and hypertension within the last 3 years only.</t>
+  </si>
+  <si>
+    <t>Self-reported type 2 diabetes</t>
+  </si>
+  <si>
+    <t>Self-reported type 2 diabetes. Question is "In the last 3 years have you been diagnosed or treated for noninsulin dependent (type 2) diabetes?"Response options: Yes, No</t>
+  </si>
+  <si>
+    <t>High cholesterol</t>
+  </si>
+  <si>
+    <t>Self-reported high cholesterol. Question is " In the last 3 years have you been diagnosed or treated for high cholesterol?" Response options: Yes, No</t>
+  </si>
+  <si>
+    <t>Centre for Epidemiologic Studies Depression Scale</t>
+  </si>
+  <si>
+    <t>mocascore</t>
+  </si>
+  <si>
+    <t>Cognitive Test score</t>
+  </si>
+  <si>
+    <t>sleepduration</t>
+  </si>
+  <si>
+    <t>Sleep duration</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>sleepquality</t>
+  </si>
+  <si>
+    <t>Sleep quality</t>
+  </si>
+  <si>
+    <t>Average score across 8 days from sleep diary</t>
+  </si>
+  <si>
+    <t>recode(1=1; 2=1; 3=1; 4=1; 5=1; 6=1; 7=1; 8=0; 9=0; 10=0; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>Sitting time in mins_weekday; Sitting time in mins_weekend</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>idproj</t>
+  </si>
+  <si>
+    <t>y8q125</t>
+  </si>
+  <si>
+    <t>y8q101; y8q102</t>
+  </si>
+  <si>
+    <t>y8q102</t>
+  </si>
+  <si>
+    <t>y8q127</t>
+  </si>
+  <si>
+    <t>y8q65</t>
+  </si>
+  <si>
+    <t>waistmmave</t>
+  </si>
+  <si>
+    <t>Waist circumference (mm)</t>
+  </si>
+  <si>
+    <t>bpsysave</t>
+  </si>
+  <si>
+    <t>bpdiasave</t>
+  </si>
+  <si>
+    <t>heartrateave</t>
+  </si>
+  <si>
+    <t>hba1c_ifcc</t>
+  </si>
+  <si>
+    <t>cholesterol</t>
+  </si>
+  <si>
+    <t>hdl_Chol</t>
+  </si>
+  <si>
+    <t>ldl_Chol</t>
+  </si>
+  <si>
+    <t>cholesterol ; hdl_Chol ; triglycerides</t>
+  </si>
+  <si>
+    <t>triglycerides</t>
+  </si>
+  <si>
+    <t>y8q121</t>
+  </si>
+  <si>
+    <t>y8q122</t>
+  </si>
+  <si>
+    <t>y8q59; y8q60</t>
+  </si>
+  <si>
+    <t>y8q59</t>
+  </si>
+  <si>
+    <t>y8q55</t>
+  </si>
+  <si>
+    <t>y8q53a ; y8q53b</t>
+  </si>
+  <si>
+    <t>y8q24c; y8q24d; y8q24r</t>
+  </si>
+  <si>
+    <t>Self-reported heart disease; _x000D_
+Self-reported hypertension;_x000D_
+Self-reported thrombosis</t>
+  </si>
+  <si>
+    <t>y8q24f; y8q24g; y8q24h</t>
+  </si>
+  <si>
+    <t>Self-reported osteoarthritis;_x000D_
+Self-reported rheumatoid arthritis;_x000D_
+Self-reported other arthritis</t>
+  </si>
+  <si>
+    <t>y8q24a; y8q24b</t>
+  </si>
+  <si>
+    <t>y8q24z; y8q24aa; y8q25; y8q27a</t>
+  </si>
+  <si>
+    <t>Skin cancer; Other cancer; Cervical cancer; Breast cancer;</t>
+  </si>
+  <si>
+    <t>y8q27b</t>
+  </si>
+  <si>
+    <t>y8cesd10</t>
+  </si>
+  <si>
+    <t>y8q64atotmins; y8q64btotmins</t>
+  </si>
+  <si>
+    <t>y8q119a</t>
+  </si>
+  <si>
+    <t>Walking briskly_frequency. Self-reported by participants. Questions adapted from Active Australia’s 1999 National Physical Activity Survey. Question is : "Please state how many times you did each type of activity and how much time you spent altogether doing each type of activity last week: Walking briskly (for recreation or exercise, or to get from place to place). _x000D_
+(If you did not do an activity, please write “0” in the boxes)". Only count activities that lasted for 10 minutes or more; add up all the times you spent in each activity to get the total time for each activity.</t>
+  </si>
+  <si>
+    <t>y8q120a;_x000D_
+y8q120b</t>
+  </si>
+  <si>
+    <t>LTPA_indiviudal sports; _x000D_
+LTPA_team sports</t>
+  </si>
+  <si>
+    <t>y8q119b; _x000D_
+y8q119c;_x000D_
+y8q120a;_x000D_
+y8q120b</t>
+  </si>
+  <si>
+    <t>Moderate lesiure time activity_frequency; _x000D_
+Vigorous lesiure time activity_frequency</t>
+  </si>
+  <si>
+    <t>y8q11a;_x000D_
+y8q11b;_x000D_
+y8q11c;_x000D_
+y8q11d;_x000D_
+y8q11e;_x000D_
+y8q11f;_x000D_
+y8q11g;_x000D_
+y8q11h;_x000D_
+y8q11i;_x000D_
+y8q11j</t>
+  </si>
+  <si>
+    <t>Health limit: vigorous activities;_x000D_
+Health limit: moderate activities;_x000D_
+Health limit: lifting or carrying;_x000D_
+Health limit: climbing flights stairs;_x000D_
+Health limit: climbing one flight stairs;_x000D_
+Health limit: bending, kneeling or stooping;_x000D_
+Health limit: walking one kilometre;_x000D_
+Health limit: walking half kilometre;_x000D_
+Health limit: walking 100 metres;_x000D_
+Health limit: bathing or dressing</t>
+  </si>
+  <si>
+    <t>Employment classification. Self-reported. Questionnaire item: What is your main occupation now? Response options: Manager or administrator (eg magistrate, farm manager, general manager, director of nursing, school principal), Professional (eg scientist, doctor, registered nurse, allied health professional, teacher, artist), Associate professional (eg technician, manager, youth worker, police officer), Tradesperson or related worker (eg hairdresser, gardener, florist), Advanced clerical or service worker (eg secretary, personal assistant, flight attendant, law clerk), Intermediate clerical, sales or service worker (eg typist, word processing / data entry operator,_x000D_
+receptionist, child care worker, nursing assistant, hospitality worker), Intermediate production or transport worker (eg sewing machinist, machine operator, bus driver), Elementary clerical, sales or service worker (eg filing / mail clerk, parking inspector, sales assistant, telemarketer, housekeeper), Labourer or related worker (eg cleaner, factory worker, general farm hand, kitchenhand), No paid job</t>
+  </si>
+  <si>
+    <t>Participant's area of residence. Question is "What is your residential postcode?" Area of residence is determined from the latitudes and longitudes of participants’ residential addresses, which are linked with geographical information_x000D_
+_x000D_
+Classification is based on the Modified Monash Model</t>
+  </si>
+  <si>
+    <t>Fruit intake. Self-reported. Question is "How many pieces of fresh fruit do you usually eat per day? (Count 1/2 cup of diced fruit, berries or grapes as one piece)._x000D_
+Response options are I don’t eat fruit, less than 1 piece of fruit per day, 1 piece of fruit per day, 2 pieces of fruit per day, 3 pieces of fruit per day and 4 or more pieces of frut per day.</t>
+  </si>
+  <si>
+    <t>Vegetable intake. Self-reported. Question is " How many serves of vegetables do you usually eat each day? (A serve = half a cup of cooked vegetables or a cup of salad vegetables)". _x000D_
+Response options are none, less than one serve, 1 serve, 2 serves, 3 serves, 4 serves, 5 serves or more.</t>
+  </si>
+  <si>
+    <t>Number of cigarettes smoked. Self-reported by participants. Question is "If you smoke daily, on average how many cigarettes do you_x000D_
+smoke each day?". Only asked to those who reported smoking daily ; Number of cigarettes smoked_weekly. Asked to those who reported smoking less than daily to Y8Q52. Question is "If you smoke, but not daily, on average how many cigarettes do you smoke per week?"</t>
+  </si>
+  <si>
+    <t>Self-reported heart disease. Question is " In the last 3 years have you been diagnosed or treated for heart disease?" Response options: Yes, No;_x000D_
+Self-reported hypertension. Question is " In the last 3 years have you been diagnosed or treated for hypertension?" Response options: Yes, No;_x000D_
+Self-reported thrombosis. Question is " In the last 3 years have you been diagnosed or treated for thrombosis?" Response options: Yes, No</t>
+  </si>
+  <si>
+    <t>Self-reported osteoarthritis. Question is " In the last 3 years have you been diagnosed or treated for osteoarthritis?" Response options: Yes, No;_x000D_
+Self-reported rheumatoid arthritis. Question is " In the last 3 years have you been diagnosed or treated for rheumatoid arthritis?" Response options: Yes, No;_x000D_
+Self-reported other arthritis. Question is " In the last 3 years have you been diagnosed or treated for other arthritis?" Response options: Yes, No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-reported skin cancer. Question is "In the last 3 years have you been diagnosed or treated for skin cancer?"Response options: Yes, No;_x000D_
+Self-reported other cancer. Question is "In the last 3 years have you been diagnosed or treated for other cancer?"Response options: Yes, No;_x000D_
+Have you ever been diagnosed with or treated for cervical cancer?;_x000D_
+Have you ever been diagnosed with or treated for: Breast cancer_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre for Epidemiologic Studies Depression Scale. Depression measured by 10-item CESD short scale. This variable gives the total score of the above 10 items. Scores can range from 0 to 30, with scores 10 or higher indicating individuals with significant levels of depressive symptoms _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognitive Test score. Assesseed using Montreal Congnitive Assessment, MoCA.The MoCA is a cognitive screening test designed to assist Health Professionals in the detection of mild cognitive impairment and Alzheimer's disease. Assessment was carried out by a research nurse. Participants were given pen and paper and assessed on alternative train making, visuoconstructional skills (cube), visuoconstructional skills (Clock), naming, memory, attention, sentence repetition, verbal fluency. This variable gives the aggregate score given by the assessor for all these skills. There are no separate variables for each of these items. _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleep duration. Average sleep duration in hours derived from sleep diary. A participant reported the time they felt asleep and the time they got out of bed for 8 days using the sleep diary. This variable represents the average sleep duration for these days days. _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleep quality. Self-reported by participants using a sleep diary (used for 1970 British Cohort Study) for each of the 8 days. Question was "How did you sleep last night?" . Response is in a scale ranging from 1(very badly) to 10 (very well)._x000D_
+This variable represents the average score across the 8 days. _x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitting time in mins during weekday. Self- reported by participants. Question is "Now think about all of the time you spend sitting during each day while at home, at work, while getting from place to place or during your spare time.In total, how much time do you typically spend sitting down while doing things like visiting friends, driving, reading, watching television or working at a desk or computer?". _x000D_
+Participant reported hours and minutes spent sitting on a usual week day and usual weekend. Using this information, this variable is derived as total weekly sitting time in minutes during weekday and weekend._x000D_
+</t>
+  </si>
+  <si>
+    <t>_x000D_
+ALSWH data dictionary (PA-survey 2 and later surveys explanations): https://alswh.org.au/wp-content/uploads/2020/08/DDSSection2.5PA_S2andlater.pdf_x000D_
+Heesch KC, van Gellecum YR, Burton NW, van Uffelen JG, Brown WJ. Physical activity, walking, and quality of life in women with depressive symptoms. American journal of preventive medicine. 2015 Mar 1;48(3):281-91.</t>
+  </si>
+  <si>
+    <t>LTPA_individual sports. Self-reported. Question is "In the last 12 months, have you regularly participated in Individual sport (eg swimming, tennis, karate, gymnastics)? Response options are yes and no._x000D_
+Please mark Yes if you can’t currently play because of injury. ;_x000D_
+LTPA_individual sports. Self-reported. Question is "In the last 12 months, have you regularly participated in Team sport (eg football, cricket, netball)?Response options are yes and no._x000D_
+Please mark Yes if you can’t currently play because of injury.</t>
+  </si>
+  <si>
+    <t>Moderate leisure time activity_frequency. Self-reported by participants.Questions adapted from Active Australia’s 1999 National Physical Activity Survey. Question is "Please state how much time you spent altogether doing each type of activity last week: Moderate leisure activity (like social tennis, moderate exercise classes, recreational swimming, dancing)._x000D_
+(If you did not do an activity, please write “0” in the boxes)". Only count activities that lasted for 10 minutes or more; add up all the times you spent in each activity to get the total time for each activity.Questions adapted from Active Australia’s 1999 National Physical Activity Survey.;_x000D_
+Vigorous lesiure time activity_frequency. Self-reported by participants.Questions adapted from Active Australia’s 1999 National Physical Activity Survey. Question is "Please state how many times you did each type of activity last week: Vigorous leisure activity (that makes you breathe harder or puff and pant like aerobics, competitive sport, vigorous cycling, running, swimming)._x000D_
+(If you did not do an activity, please write “0” in the boxes)". Only count activities that lasted for 10 minutes or more; add up all the times you spent in each activity to get the total time for each activity.Questions adapted from Active Australia’s 1999 National Physical Activity Survey.</t>
+  </si>
+  <si>
+    <t>1=No formal qualifications;_x000D_
+2= Year 10 or equivalent;_x000D_
+3= Year 12 or equivalent;_x000D_
+4= Trade/apprenticeship;_x000D_
+5= Certificate/Diploma;_x000D_
+6= University degree;_x000D_
+7= Higher university degree;_x000D_
 .= Missing</t>
   </si>
   <si>
-    <t>recode(1=0; 2=0; 3=1; 4=2; 5=2; 6=3; 7=3; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>Please confirm/adjust/comment the recoding, we are not 100% sure to understand how the education system translate to the categories desired for harmonization.</t>
-  </si>
-  <si>
-    <t>Y8Q101; Y8Q102</t>
-  </si>
-  <si>
-    <t>Employment status; Employment classfication</t>
-  </si>
-  <si>
-    <t>Employment status. Self-reported. Question is "Are you currently unemployed, and actively seeking work?" Response options are no, yes unemployed for less than 6 months and yes unemployed for 6 months or more</t>
-  </si>
-  <si>
-    <t>1 = 'No';
-2 = 'Yes, unemployed for less than 6 months';
-3 = 'Yes, unemployed for 6 months or more';
+    <t>1 = 'No';_x000D_
+2 = 'Yes, unemployed for less than 6 months';_x000D_
+3 = 'Yes, unemployed for 6 months or more';_x000D_
 . = 'Missing'</t>
   </si>
   <si>
-    <t>case_when(
-Y8Q101 %in% c(2, 3) ~ 0L;
-Y8Q102 %in% 1:9 ~ 1L;
+    <t>1 = 'Manager or administrator';_x000D_
+2 = 'Professional';_x000D_
+3 = 'Associate professional';_x000D_
+4 = 'Tradesperson or related worker';_x000D_
+5 = 'Advanced clerical or service worker';_x000D_
+6 = 'Intermediate clerical, sales/service worker';_x000D_
+7 = 'Intermediate production or transport worker';_x000D_
+8 = 'Elementary clerical, sales or service worker';_x000D_
+9 = 'Labourer or related worker';_x000D_
+10 = 'No paid job';_x000D_
+. = 'Missing' ;</t>
+  </si>
+  <si>
+    <t>1 = 'Never married'_x000D_
+2 = 'Married (opposite sex)'_x000D_
+3 = 'Married (same sex)'_x000D_
+4 = 'De facto (opposite sex)'_x000D_
+5 = 'De facto (same sex)'_x000D_
+6 = 'Separated'_x000D_
+7 = 'Divorced'_x000D_
+8 = 'Widowed'_x000D_
+. = 'Missing'</t>
+  </si>
+  <si>
+    <t>1 = 'Metropolitan areas'_x000D_
+2 = 'Regional centres'_x000D_
+3 = 'Large rural towns'_x000D_
+4 = 'Medium rural towns'_x000D_
+5 = 'Small rural towns'_x000D_
+6 = 'Remote communities'_x000D_
+7 = 'Remote mainland areas'_x000D_
+.='missing';</t>
+  </si>
+  <si>
+    <t>1=I don’t eat fruit;_x000D_
+2=Less than 1 per day;_x000D_
+3= 1 piece of fruit per day;_x000D_
+4=2 pieces of fruit per day;_x000D_
+5=3 pieces per day;_x000D_
+5= 4 or more per day;_x000D_
+.= Missing</t>
+  </si>
+  <si>
+    <t>1= None;_x000D_
+2= Less than one serve;_x000D_
+3= 1 serve;_x000D_
+4= 2 serves;_x000D_
+5= 3 serves;_x000D_
+6= 4 serves;_x000D_
+7= 5 serves or more;_x000D_
+.= Missing</t>
+  </si>
+  <si>
+    <t>1= I never drink alcohol;_x000D_
+2= Less than once a month;_x000D_
+3= Less than once a week;_x000D_
+4= On 1 or 2 days a week;_x000D_
+5=On 3 or 4 days a week;_x000D_
+6=On 5 or 6 days a week;_x000D_
+7= Every day;_x000D_
+.=Missing;_x000D_
+_x000D_
+0=Never drink;_x000D_
+1= 1 or 2 drinks per day;_x000D_
+2= 3 or 4 drinks per day;_x000D_
+3= 5 to 8 drinks per day;_x000D_
+4= 9 or more drinks per day;_x000D_
+.= Missing</t>
+  </si>
+  <si>
+    <t>1= I never drink alcohol_x000D_
+2= Less than once a month_x000D_
+3= Less than once a week_x000D_
+4= On 1 or 2 days a week_x000D_
+5=On 3 or 4 days a week_x000D_
+6=On 5 or 6 days a week_x000D_
+7= Every day_x000D_
+.=Missing</t>
+  </si>
+  <si>
+    <t>1=Yes;_x000D_
+2= No;_x000D_
+3= Daily smoker;_x000D_
+4= Not smoked 100;_x000D_
+.=Missing</t>
+  </si>
+  <si>
+    <t>1 = 'Excellent'_x000D_
+2 = 'Very good'_x000D_
+3 = 'Good'_x000D_
+4 = 'Fair'_x000D_
+5 = 'Poor'_x000D_
+. = 'Missing'</t>
+  </si>
+  <si>
+    <t>0= No_x000D_
+1=Yes_x000D_
+. = Missing</t>
+  </si>
+  <si>
+    <t>0= No_x000D_
+1=Yes_x000D_
+. = Missing;_x000D_
+_x000D_
+1 = 'Yes'_x000D_
+2 = 'No'_x000D_
+. = 'Missing'</t>
+  </si>
+  <si>
+    <t>1= Yes_x000D_
+0= No_x000D_
+.= Missing</t>
+  </si>
+  <si>
+    <t>1=Yes, limited a lot_x000D_
+2= Yes, limited a little_x000D_
+3= Not, not limited at all_x000D_
+.=Missing</t>
+  </si>
+  <si>
+    <t>format(as.Date(clinicdate, format = "%d/%m/%Y"), "%Y-%m-%d")</t>
+  </si>
+  <si>
+    <t>case_when(_x000D_
+y8q101 %in% c(2, 3) ~ 0L;_x000D_
+y8q102 %in% 1:9 ~ 1L;_x000D_
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
-    <t>Y8Q102</t>
-  </si>
-  <si>
-    <t>Employment classfication</t>
-  </si>
-  <si>
-    <t>Employment classification. Self-reported. Questionnaire item: What is your main occupation now? Response options: Manager or administrator (eg magistrate, farm manager, general manager, director of nursing, school principal), Professional (eg scientist, doctor, registered nurse, allied health professional, teacher, artist), Associate professional (eg technician, manager, youth worker, police officer), Tradesperson or related worker (eg hairdresser, gardener, florist), Advanced clerical or service worker (eg secretary, personal assistant, flight attendant, law clerk), Intermediate clerical, sales or service worker (eg typist, word processing / data entry operator,
-receptionist, child care worker, nursing assistant, hospitality worker), Intermediate production or transport worker (eg sewing machinist, machine operator, bus driver), Elementary clerical, sales or service worker (eg filing / mail clerk, parking inspector, sales assistant, telemarketer, housekeeper), Labourer or related worker (eg cleaner, factory worker, general farm hand, kitchenhand), No paid job</t>
-  </si>
-  <si>
-    <t>1 = 'Manager or administrator';
-2 = 'Professional';
-3 = 'Associate professional';
-4 = 'Tradesperson or related worker';
-5 = 'Advanced clerical or service worker';
-6 = 'Intermediate clerical, sales/service worker';
-7 = 'Intermediate production or transport worker';
-8 = 'Elementary clerical, sales or service worker';
-9 = 'Labourer or related worker';
-10 = 'No paid job';
-. = 'Missing' ;</t>
-  </si>
-  <si>
-    <t>recode(1 = 'Manager or administrator'; 2 = 'Professional'; 3 = 'Associate professional'; 4 = 'Tradesperson or related worker'; 5 = 'Advanced clerical or service worker'; 6 = 'Intermediate clerical, sales/service worker'; 7 = 'Intermediate production or transport worker'; 8 = 'Elementary clerical, sales or service worker'; 9 = 'Labourer or related worker'; 10 = 'No paid job'; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>Y8Q127</t>
-  </si>
-  <si>
-    <t>Marital status</t>
-  </si>
-  <si>
-    <t>Marital status. Self-reported. Question is "What is your present marital status?". Response options are never married, Married (opposite sex), Married (same sex), De facto (opposite sex), De facto (same sex), Separated, Divorced, Widowed.</t>
-  </si>
-  <si>
-    <t>1 = 'Never married'
-2 = 'Married (opposite sex)'
-3 = 'Married (same sex)'
-4 = 'De facto (opposite sex)'
-5 = 'De facto (same sex)'
-6 = 'Separated'
-7 = 'Divorced'
-8 = 'Widowed'
-. = 'Missing'</t>
-  </si>
-  <si>
-    <t>recode(1=0; 2=1; 3=1; 7=2; 8=2; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>recode(1=0; 2=1; 3=1; 4=1; 5=1; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>Y8Q65</t>
-  </si>
-  <si>
-    <t>Postcode</t>
-  </si>
-  <si>
-    <t>Participant's area of residence. Question is "What is your residential postcode?" Area of residence is determined from the latitudes and longitudes of participants’ residential addresses, which are linked with geographical information
-Classification is based on the Modified Monash Model</t>
-  </si>
-  <si>
-    <t>1 = 'Metropolitan areas'
-2 = 'Regional centres'
-3 = 'Large rural towns'
-4 = 'Medium rural towns'
-5 = 'Small rural towns'
-6 = 'Remote communities'
-7 = 'Remote mainland areas'
-.='missing';</t>
-  </si>
-  <si>
-    <t>recode(1=2; 2=NA; 3=NA; 4=NA; 5=1; 6=1; 7=1; ELSE=NA</t>
-  </si>
-  <si>
-    <t>Are the categories here a good proxy for Rural/Urban? Categories 2, 3 and 4 could combine rural and urban depending on the definition and context.
-Reference: https://www.health.gov.au/topics/rural-health-workforce/classifications/mmm
-Can you tell us how you would classify the categories 2, 3, and 4?</t>
-  </si>
-  <si>
-    <t>htcm</t>
-  </si>
-  <si>
-    <t>Height in cm</t>
-  </si>
-  <si>
-    <t>Height in cm. Participants height was measured at clinic using stadiometer. Adapted from protocols of the Australian Health Survey and the Centre for Disease Control and Prevention. Interviewers encouraged respondents to remove their shoes and any heavy clothing, e.g. jumpers, before they took measurements, however, this was voluntary.</t>
-  </si>
-  <si>
-    <t>.=missing</t>
-  </si>
-  <si>
-    <t>ifelse(!is.na(htcm), 2, NA)</t>
-  </si>
-  <si>
-    <t>wtkg</t>
-  </si>
-  <si>
-    <t>Weight in kg</t>
-  </si>
-  <si>
-    <t>Weight in kg. Participants weight was measured at clinic using digital scales. Adapted from protocols of the Australian Health Survey and the Centre for Disease Control and Prevention. Interviewers encouraged respondents to remove their shoes and any heavy clothing, e.g. jumpers, before they took measurements, however, this was voluntary.</t>
-  </si>
-  <si>
-    <t>ifelse(!is.na(wtkg), 2, NA)</t>
-  </si>
-  <si>
-    <t>bmi</t>
-  </si>
-  <si>
-    <t>Body mass index. BMI was calculated as weight in kg divided by squared height in meters.</t>
-  </si>
-  <si>
-    <t>waistmm1 ; waistmm2; waistmm3</t>
-  </si>
-  <si>
-    <t>Waist circumference (mm) - Measurement 1, 2 and 3</t>
-  </si>
-  <si>
-    <t>Waist circumference (mm) - Measurement 1, 2 and 3. The waist circumference was measured at the midpoint between the bottom of the last palpable rib and top of the iliac crest. All circumferences were measured to the nearest millimetre in duplicate. Where the difference between the two measurements exceeded 5mm, a third measurement was performed.</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Do you have the individual values of waist circumference in your dataset or an average?
-The data dictionary mentions individual values, but the report you produced suggest an average.</t>
-  </si>
-  <si>
-    <t>ifelse(is.na(waistmm1) &amp; is.na(waistmm2) &amp; is.na(waistmm3), NA, 2)</t>
-  </si>
-  <si>
-    <t>bpsys1; bpsys2 ; bpsys3</t>
-  </si>
-  <si>
-    <t>Blood pressure - Systolic (mmHg) - Measurement 1, 2 and 3</t>
-  </si>
-  <si>
-    <t>Blood pressure - Systolic (mmHg) - Measurement 1, 2, and 3. Measured using Automated blood pressure monitor.After resting in a seated position for 5 minutes, three measurements of systolic and diastolic blood pressures and heart rate, interspersed by 1-2 minutes,were recorded using an automated blood pressure monitor.</t>
-  </si>
-  <si>
-    <t>Do you have the individual values of systolic blood pressure in your dataset or an average?
-The data dictionary mentions individual values, but the report you produced suggest an average.</t>
-  </si>
-  <si>
-    <t>bpdias1; bpdias2 ; bpdias3</t>
-  </si>
-  <si>
-    <t>Blood pressure - Diastolic (mmHg) - Measurement 1, 2 and 3</t>
-  </si>
-  <si>
-    <t>Blood pressure - Diastolic (mmHg) - Measurement 1, 2 and 3. Measured using Automated blood pressure monitor.After resting in a seated position for 5 minutes, three measurements of systolic and diastolic blood pressures and heart rate, interspersed by 1-2 minutes,were recorded using an automated blood pressure monitor.</t>
-  </si>
-  <si>
-    <t>rowMeans(select(., bpdias1, bpdias2,bpdias3 ), na.rm = TRUE)</t>
-  </si>
-  <si>
-    <t>Do you have the individual values of diastolic blood pressure in your dataset or an average?
-The data dictionary mentions individual values, but the report you produced suggest an average.</t>
-  </si>
-  <si>
-    <t>heartrate1; heartrate2; heartrate3</t>
-  </si>
-  <si>
-    <t>Resting heart rate (beats per min) - Measurement 1, 2 and 3</t>
-  </si>
-  <si>
-    <t>Resting heart rate (beats per min) - Measurement 1, 2 and 3. Measured using Automated blood pressure monitor.After resting in a seated position for 5 minutes, three measurements of systolic and diastolic blood pressures and heart rate, interspersed by 1-2 minutes,were recorded using an automated blood pressure monitor.</t>
-  </si>
-  <si>
-    <t>Average of 3 measures preceded by a 5 minutes rest (1-2 minutes between each measure)</t>
-  </si>
-  <si>
-    <t>rowMeans(select(., heartrate1, heartrate2, heartrate3 ), na.rm = TRUE)</t>
-  </si>
-  <si>
-    <t>All participants of this cohort were non-fasting</t>
-  </si>
-  <si>
-    <t>Please confirm that all participants were in a no-fasting state</t>
-  </si>
-  <si>
-    <t>HbA1c_IFCC</t>
-  </si>
-  <si>
-    <t>HbA1c (IFCC) mmol/mol</t>
-  </si>
-  <si>
-    <t>HbA1c (IFCC) mmol/mol. HbA1c expressed as a value in mmol/mol (IFCC unit).Non-fasting venous blood samples were collected by research personnel or by pathology phlebotomy service providers. BD Vacutainer® EDTA (for plasma and HbA1c testing), SST II (for serum and cholesterol testing), and plain (for serum) tubes were used to collect blood. SST II and plain tubes were stored at 4°C and EDTA tubes at room temperature for up to 72 hours before processing. Total, LDL-, VLDL- and HDL-cholesterol, and glycated haemoglobin A1c (HbA1c) were measured using routine autoanalyser methods.</t>
-  </si>
-  <si>
-    <t>Cholesterol</t>
-  </si>
-  <si>
-    <t>Cholesterol mmol/L</t>
-  </si>
-  <si>
-    <t>Cholesterol mmol/L.Non-fasting venous blood samples were collected by research personnel or by pathology phlebotomy service providers. BD Vacutainer® EDTA (for plasma and HbA1c testing), SST II (for serum and cholesterol testing), and plain (for serum) tubes were used to collect blood. SST II and plain tubes were stored at 4°C and EDTA tubes at room temperature for up to 72 hours before processing. Total, LDL-, VLDL- and HDL-cholesterol, and glycated haemoglobin A1c (HbA1c) were measured using routine autoanalyser methods.</t>
-  </si>
-  <si>
-    <t>HDL_Chol</t>
-  </si>
-  <si>
-    <t>HDL Cholesterol mmol/L</t>
-  </si>
-  <si>
-    <t>HDL Cholesterol mmol/L.Non-fasting venous blood samples were collected by research personnel or by pathology phlebotomy service providers. BD Vacutainer® EDTA (for plasma and HbA1c testing), SST II (for serum and cholesterol testing), and plain (for serum) tubes were used to collect blood. SST II and plain tubes were stored at 4°C and EDTA tubes at room temperature for up to 72 hours before processing. Total, LDL-, VLDL- and HDL-cholesterol, and glycated haemoglobin A1c (HbA1c) were measured using routine autoanalyser methods.</t>
-  </si>
-  <si>
-    <t>LDL_Chol</t>
-  </si>
-  <si>
-    <t>LDL Cholesterol mmol/L</t>
-  </si>
-  <si>
-    <t>LDL Cholesterol mmol/L.Non-fasting venous blood samples were collected by research personnel or by pathology phlebotomy service providers. BD Vacutainer® EDTA (for plasma and HbA1c testing), SST II (for serum and cholesterol testing), and plain (for serum) tubes were used to collect blood. SST II and plain tubes were stored at 4°C and EDTA tubes at room temperature for up to 72 hours before processing. Total, LDL-, VLDL- and HDL-cholesterol, and glycated haemoglobin A1c (HbA1c) were measured using routine autoanalyser methods.</t>
-  </si>
-  <si>
-    <t>Cholesterol ; HDL_Chol ; Triglycerides</t>
-  </si>
-  <si>
-    <t>Cholesterol mmol/L ; HDL Cholesterol mmol/L ; Triglycerides mmol/L</t>
-  </si>
-  <si>
-    <t>Cholesterol mmol/L.Non-fasting venous blood samples were collected by research personnel or by pathology phlebotomy service providers. BD Vacutainer® EDTA (for plasma and HbA1c testing), SST II (for serum and cholesterol testing), and plain (for serum) tubes were used to collect blood. SST II and plain tubes were stored at 4°C and EDTA tubes at room temperature for up to 72 hours before processing. Total, LDL-, VLDL- and HDL-cholesterol, and glycated haemoglobin A1c (HbA1c) were measured using routine autoanalyser methods. ; HDL Cholesterol mmol/L.Non-fasting venous blood samples were collected by research personnel or by pathology phlebotomy service providers. BD Vacutainer® EDTA (for plasma and HbA1c testing), SST II (for serum and cholesterol testing), and plain (for serum) tubes were used to collect blood. SST II and plain tubes were stored at 4°C and EDTA tubes at room temperature for up to 72 hours before processing. Total, LDL-, VLDL- and HDL-cholesterol, and glycated haemoglobin A1c (HbA1c) were measured using routine autoanalyser methods. ; Triglycerides mmol/L.Non-fasting venous blood samples were collected by research personnel or by pathology phlebotomy service providers. BD Vacutainer® EDTA (for plasma and HbA1c testing), SST II (for serum and cholesterol testing), and plain (for serum) tubes were used to collect blood. SST II and plain tubes were stored at 4°C and EDTA tubes at room temperature for up to 72 hours before processing. Total, LDL-, VLDL- and HDL-cholesterol, and glycated haemoglobin A1c (HbA1c) were measured using routine autoanalyser methods.</t>
-  </si>
-  <si>
-    <t>.=missing ; .=missing ; .=missing</t>
-  </si>
-  <si>
-    <t>mmol/L ; mmol/L ; mmol/L</t>
-  </si>
-  <si>
-    <t>Friedewald equation was used https://lipidworld.biomedcentral.com/articles/10.1186/1476-511X-9-27</t>
-  </si>
-  <si>
-    <t>Cholesterol - HDL_Chol - (Triglycerides/2.2)</t>
-  </si>
-  <si>
-    <t>Triglycerides mmol/L</t>
-  </si>
-  <si>
-    <t>Triglycerides mmol/L.Non-fasting venous blood samples were collected by research personnel or by pathology phlebotomy service providers. BD Vacutainer® EDTA (for plasma and HbA1c testing), SST II (for serum and cholesterol testing), and plain (for serum) tubes were used to collect blood. SST II and plain tubes were stored at 4°C and EDTA tubes at room temperature for up to 72 hours before processing. Total, LDL-, VLDL- and HDL-cholesterol, and glycated haemoglobin A1c (HbA1c) were measured using routine autoanalyser methods.</t>
-  </si>
-  <si>
-    <t>Y8Q121</t>
-  </si>
-  <si>
-    <t>Fruit intake</t>
-  </si>
-  <si>
-    <t>Fruit intake. Self-reported. Question is "How many pieces of fresh fruit do you usually eat per day? (Count 1/2 cup of diced fruit, berries or grapes as one piece).
-Response options are I don’t eat fruit, less than 1 piece of fruit per day, 1 piece of fruit per day, 2 pieces of fruit per day, 3 pieces of fruit per day and 4 or more pieces of frut per day.</t>
-  </si>
-  <si>
-    <t>1=I don’t eat fruit;
-2=Less than 1 per day;
-3= 1 piece of fruit per day;
-4=2 pieces of fruit per day;
-5=3 pieces per day;
-5= 4 or more per day;
-.= Missing</t>
-  </si>
-  <si>
-    <t>Consider 1 piece or half-cup of fruits is approximatively 80 grams. 
+    <t>recode(1=2; 2=1; 3=1; 4=1; 5=1; 6=1; 7=1; ELSE=NA</t>
+  </si>
+  <si>
+    <t>ifelse(is.na(waistmmave), NA, 2)</t>
+  </si>
+  <si>
+    <t>cholesterol - hdl_Chol - (triglycerides/2.2)</t>
+  </si>
+  <si>
+    <t>Consider 1 piece or half-cup of fruits is approximatively 80 grams. _x000D_
 The answers "Less than 1 piece of fruit per day" and "4 or more pieces of fruit per day" could not be harmonized, and are equal to NA in harmonized dataset.</t>
   </si>
   <si>
-    <t>recode(1=0; 2=NA; 3=80; 4=160; 5=240; 6=NA; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>Y8Q122</t>
-  </si>
-  <si>
-    <t>Vegetable intake</t>
-  </si>
-  <si>
-    <t>Vegetable intake. Self-reported. Question is " How many serves of vegetables do you usually eat each day? (A serve = half a cup of cooked vegetables or a cup of salad vegetables)". 
-Response options are none, less than one serve, 1 serve, 2 serves, 3 serves, 4 serves, 5 serves or more.</t>
-  </si>
-  <si>
-    <t>1= None;
-2= Less than one serve;
-3= 1 serve;
-4= 2 serves;
-5= 3 serves;
-6= 4 serves;
-7= 5 serves or more;
-.= Missing</t>
-  </si>
-  <si>
-    <t>Consider 1 serve of vegetable is approximatively 80 grams. 
+    <t>Consider 1 serve of vegetable is approximatively 80 grams. _x000D_
 The answers "Less than one serve" and "5 serves or more" could not be harmonized, and are equal to NA in harmonized dataset.</t>
   </si>
   <si>
-    <t>recode(1=0; 2=NA; 3=80; 4=160; 5=240; 6=320; 7=NA; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>Y8Q59; Y8Q60</t>
-  </si>
-  <si>
-    <t>Alcohol frequency; Standard drinks</t>
-  </si>
-  <si>
-    <t>Alcohol frequency. Self-reported. Question is "How often do you usually drink alcohol?" Response options are I never drink alcohol, less than once a month, less than once a week. On 1 or 2 days a week, on 3 or 4 days a week, on 5 or 6 days a week, everyday; Standard drinks. Self-reported. Question is "When you drink alcohol, how many standard drinks do you usually have?". Response options are do not drink alcohol, 1 or 2 drinks per day, 3 or 4 drinks per day, 5 to 8 drinks per day, 9 or more drinks per day.</t>
-  </si>
-  <si>
-    <t>1= I never drink alcohol;
-2= Less than once a month;
-3= Less than once a week;
-4= On 1 or 2 days a week;
-5=On 3 or 4 days a week;
-6=On 5 or 6 days a week;
-7= Every day;
-.=Missing;
-0=Never drink;
-1= 1 or 2 drinks per day;
-2= 3 or 4 drinks per day;
-3= 5 to 8 drinks per day;
-4= 9 or more drinks per day;
-.= Missing</t>
-  </si>
-  <si>
-    <t>could we know the distribution of the combination of variables Y8Q59 and Y8Q60?</t>
-  </si>
-  <si>
-    <t>Y8Q59</t>
-  </si>
-  <si>
-    <t>Alcohol frequency</t>
-  </si>
-  <si>
-    <t>Alcohol frequency. Self-reported. Question is "How often do you usually drink alcohol?" Response options are I never drink alcohol, less than once a month, less than once a week. On 1 or 2 days a week, on 3 or 4 days a week, on 5 or 6 days a week, everyday</t>
-  </si>
-  <si>
-    <t>1= I never drink alcohol
-2= Less than once a month
-3= Less than once a week
-4= On 1 or 2 days a week
-5=On 3 or 4 days a week
-6=On 5 or 6 days a week
-7= Every day
-.=Missing</t>
-  </si>
-  <si>
-    <t>4 times a week is considered as weekly</t>
-  </si>
-  <si>
-    <t>Y8Q55</t>
-  </si>
-  <si>
-    <t>Daily smoking</t>
-  </si>
-  <si>
-    <t>Daily smoking. Question is "Have you ever smoked daily?". Response options are yes, no, daily smoker, not smoked 100 cig in total</t>
-  </si>
-  <si>
-    <t>1=Yes;
-2= No;
-3= Daily smoker;
-4= Not smoked 100;
-.=Missing</t>
-  </si>
-  <si>
-    <t>recode(1=1; 2=0; 3=2; 4=0; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>recode(1=NA; 2=NA; 3=2; 4=NA; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>Y8Q53A ; Y8Q53B</t>
-  </si>
-  <si>
-    <t>Number of cigarettes smoked_daily ; Number of cigarettes smoked_weekly.</t>
-  </si>
-  <si>
-    <t>Number of cigarettes smoked. Self-reported by participants. Question is "If you smoke daily, on average how many cigarettes do you
-smoke each day?". Only asked to those who reported smoking daily ; Number of cigarettes smoked_weekly. Asked to those who reported smoking less than daily to Y8Q52. Question is "If you smoke, but not daily, on average how many cigarettes do you smoke per week?"</t>
-  </si>
-  <si>
-    <t>.=missing ; .=missing</t>
-  </si>
-  <si>
-    <t>case_when(
-!is.na(Y8Q53B) ~ as.integer(Y8Q53B);
-!is.na(Y8Q53A) ~ as.integer(Y8Q53A)*7; 
+    <t>case_when(_x000D_
+!is.na(y8q53b) ~ as.integer(y8q53b);_x000D_
+!is.na(y8q53a) ~ as.integer(y8q53a)*7; _x000D_
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
-    <t>y8sfhealth</t>
-  </si>
-  <si>
-    <t>General health</t>
-  </si>
-  <si>
-    <t>General health. Self-rated health by participants. Question was "In general, how would you say your health is? Respons options included excellent, very good, good, fair and poor.</t>
-  </si>
-  <si>
-    <t>1 = 'Excellent'
-2 = 'Very good'
-3 = 'Good'
-4 = 'Fair'
-5 = 'Poor'
-. = 'Missing'</t>
-  </si>
-  <si>
-    <t>recode(1=4; 2=4; 3=3; 4=2; 5=1; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>Y8Q24C; Y8Q24D</t>
-  </si>
-  <si>
-    <t>Self-reported heart disease; Self-reported hypertension</t>
-  </si>
-  <si>
-    <t>Self-reported heart disease. Question is " In the last 3 years have you been diagnosed or treated for heart disease?" Response options: Yes, No;
-Self-reported hypertension. Question is " In the last 3 years have you been diagnosed or treated for hypertension?" Response options: Yes, No</t>
-  </si>
-  <si>
-    <t>0= No
-1=Yes
-. = Missing</t>
-  </si>
-  <si>
-    <t>The category "No" was not produced. Collected information about treated or diagnosed heart disease and hypertension within the last 3 years only.</t>
-  </si>
-  <si>
-    <t>case_when(
-Y8Q24C == 1 ~ 1L; 
-Y8Q24D == 1 ~ 1L;
+    <t>case_when(_x000D_
+y8y24c == 1 ~ 1L; _x000D_
+y8q24d == 1 ~ 1L;_x000D_
+y8q24r == 1 ~ 1L;_x000D_
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
-    <t>The questionnaire also includes a question regarding thrombosis. Is this variable available? If so, please provide it.</t>
-  </si>
-  <si>
-    <t>Is this variable available? If so, can you provide it with its categories.</t>
-  </si>
-  <si>
-    <t>Y8Q24B</t>
-  </si>
-  <si>
-    <t>Self-reported type 2 diabetes</t>
-  </si>
-  <si>
-    <t>Self-reported type 2 diabetes. Question is "In the last 3 years have you been diagnosed or treated for noninsulin dependent (type 2) diabetes?"Response options: Yes, No</t>
-  </si>
-  <si>
-    <t>Are both type 1 and type 2 diabetes reported?
-Questionnaire includes both, but data dictionnary available only has type 2.</t>
-  </si>
-  <si>
-    <t>Y8Q27A</t>
-  </si>
-  <si>
-    <t>Breast cancer</t>
-  </si>
-  <si>
-    <t>Self-reported breast cancer. Question is " In the last 3 years have you been diagnosed or treated for breast cancer?" Response options: Yes, No</t>
-  </si>
-  <si>
-    <t>Are the data available for skin cancer, other cancer and cervical cancer? Only breast cancer mentionned in data dictionary.</t>
-  </si>
-  <si>
-    <t>Y8Q27B</t>
-  </si>
-  <si>
-    <t>High cholesterol</t>
-  </si>
-  <si>
-    <t>Self-reported high cholesterol. Question is " In the last 3 years have you been diagnosed or treated for high cholesterol?" Response options: Yes, No</t>
-  </si>
-  <si>
-    <t>Y8Q50AU</t>
-  </si>
-  <si>
-    <t>Selfreported Depression</t>
-  </si>
-  <si>
-    <t>Self reported Depression. Question is "In the last 12 months, have you had depression?" Response options were: Never, Rarely, Sometimes, Often</t>
-  </si>
-  <si>
-    <t>1=Never
-2= Rarely
-3=Sometimes
-4=Often
-.=Missing</t>
-  </si>
-  <si>
-    <t>Is the variable related to Q24m from the questionnaire available?</t>
-  </si>
-  <si>
-    <t>Y8CESD10</t>
-  </si>
-  <si>
-    <t>Centre for Epidemiologic Studies Depression Scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre for Epidemiologic Studies Depression Scale. Depression measured by 10-item CESD short scale. This variable gives the total score of the above 10 items. Scores can range from 0 to 30, with scores 10 or higher indicating individuals with significant levels of depressive symptoms 
-</t>
-  </si>
-  <si>
-    <t>mocascore</t>
-  </si>
-  <si>
-    <t>Cognitive Test score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cognitive Test score. Assesseed using Montreal Congnitive Assessment, MoCA.The MoCA is a cognitive screening test designed to assist Health Professionals in the detection of mild cognitive impairment and Alzheimer's disease. Assessment was carried out by a research nurse. Participants were given pen and paper and assessed on alternative train making, visuoconstructional skills (cube), visuoconstructional skills (Clock), naming, memory, attention, sentence repetition, verbal fluency. This variable gives the aggregate score given by the assessor for all these skills. There are no separate variables for each of these items. 
-</t>
-  </si>
-  <si>
-    <t>sleepduration</t>
-  </si>
-  <si>
-    <t>Sleep duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep duration. Average sleep duration in hours derived from sleep diary. A participant reported the time they felt asleep and the time they got out of bed for 8 days using the sleep diary. This variable represents the average sleep duration for these days days. 
-</t>
-  </si>
-  <si>
-    <t>hr</t>
-  </si>
-  <si>
-    <t>case_when( sleepduration &gt;= 0 &amp; sleepduration &lt; 6.25 ~ 1L;
-sleepduration &gt;= 6.25 &amp; sleepduration &lt; 6.75 ~ 2L;
-sleepduration &gt;= 6.75 &amp; sleepduration &lt; 7.25 ~ 3L;
-sleepduration &gt;= 7.25 &amp; sleepduration &lt; 7.75 ~ 4L;
-sleepduration &gt;= 7.75 &amp; sleepduration &lt; 8.25 ~ 5L;
-sleepduration &gt;= 8.25 &amp; sleepduration &lt; 8.75 ~ 6L;
-sleepduration &gt;= 8.75 &amp; sleepduration &lt; 9.25 ~ 7L;
-sleepduration &gt;= 9.25 &amp; sleepduration &lt; 9.75 ~ 8L;
-sleepduration &gt;= 9.75 ~ 9L;
+    <t>case_when(_x000D_
+y8y24f == 1 ~ 1L; _x000D_
+y8q24g == 1 ~ 1L;_x000D_
+y8q24h == 1 ~ 1L;_x000D_
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
-    <t>sleepquality</t>
-  </si>
-  <si>
-    <t>Sleep quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep quality. Self-reported by participants using a sleep diary (used for 1970 British Cohort Study) for each of the 8 days. Question was "How did you sleep last night?" . Response is in a scale ranging from 1(very badly) to 10 (very well).
-This variable represents the average score across the 8 days. 
-</t>
-  </si>
-  <si>
-    <t>Average score across 8 days from sleep diary</t>
-  </si>
-  <si>
-    <t>recode(1=1; 2=1; 3=1; 4=1; 5=1; 6=1; 7=1; 8=0; 9=0; 10=0; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>Y8Q64ATOTMINS; Y8Q64BTOTMINS</t>
-  </si>
-  <si>
-    <t>Sitting time in mins_weekday; Sitting time in mins_weekend</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>rowSums(mutate(.,
-temp_Y8Q64ATOTMINS = Y8Q64ATOTMINS*5,
-temp_Y8Q64BTOTMINS = Y8Q64BTOTMINS*2) %&gt;%
-select(temp_Y8Q64ATOTMINS, temp_Y8Q64BTOTMINS),
+    <t>case_when(_x000D_
+y8y24a == 1 ~ 1L; _x000D_
+y8q24b == 1 ~ 1L;_x000D_
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>The category "Other" could not pe produced.</t>
+  </si>
+  <si>
+    <t>case_when(_x000D_
+y8y24a == 1 ~ 1L; _x000D_
+y8q24b == 1 ~ 2L;_x000D_
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>case_when(_x000D_
+y8q24z == 1 ~ 1L; _x000D_
+y8q24aa == 1 ~ 1L;_x000D_
+y8q25 == 1 ~ 1L;_x000D_
+y8q27a == 1 ~ 1L;_x000D_
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>case_when( sleepduration &gt;= 0 &amp; sleepduration &lt; 6.25 ~ 1L;_x000D_
+sleepduration &gt;= 6.25 &amp; sleepduration &lt; 6.75 ~ 2L;_x000D_
+sleepduration &gt;= 6.75 &amp; sleepduration &lt; 7.25 ~ 3L;_x000D_
+sleepduration &gt;= 7.25 &amp; sleepduration &lt; 7.75 ~ 4L;_x000D_
+sleepduration &gt;= 7.75 &amp; sleepduration &lt; 8.25 ~ 5L;_x000D_
+sleepduration &gt;= 8.25 &amp; sleepduration &lt; 8.75 ~ 6L;_x000D_
+sleepduration &gt;= 8.75 &amp; sleepduration &lt; 9.25 ~ 7L;_x000D_
+sleepduration &gt;= 9.25 &amp; sleepduration &lt; 9.75 ~ 8L;_x000D_
+sleepduration &gt;= 9.75 ~ 9L;_x000D_
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>rowSums(mutate(.,_x000D_
+temp_y8q64atotmins = y8q64atotmins*5,_x000D_
+temp_y8q64btotmins = y8q64btotmins*2) %&gt;%_x000D_
+select(temp_y8q64atotmins, temp_y8q64btotmins),_x000D_
 na.rm=TRUE) / 7 / 60</t>
   </si>
   <si>
-    <t>case_when(
-((Y8Q64ATOTMINS*5) + (Y8Q64BTOTMINS*2)) / 7 / 60 == 0 ~ 0L;
-((Y8Q64ATOTMINS*5) + (Y8Q64BTOTMINS*2)) / 7 / 60 &gt; 0 &amp; ((Y8Q64ATOTMINS*5) + (Y8Q64BTOTMINS*2)) / 7 / 60 &lt; 1 ~ 1L;
-((Y8Q64ATOTMINS*5) + (Y8Q64BTOTMINS*2)) / 7 / 60 &gt;= 1 &amp; ((Y8Q64ATOTMINS*5) + (Y8Q64BTOTMINS*2)) / 7 / 60 &lt; 3 ~ 2L;
-((Y8Q64ATOTMINS*5) + (Y8Q64BTOTMINS*2)) / 7 / 60 &gt;= 3 &amp; ((Y8Q64ATOTMINS*5) + (Y8Q64BTOTMINS*2)) / 7 / 60 &lt; 5 ~ 3L;
-((Y8Q64ATOTMINS*5) + (Y8Q64BTOTMINS*2)) / 7 / 60 &gt;= 5 &amp; ((Y8Q64ATOTMINS*5) + (Y8Q64BTOTMINS*2)) / 7 / 60 &lt; 7 ~ 4L;
-((Y8Q64ATOTMINS*5) + (Y8Q64BTOTMINS*2)) / 7 / 60 &gt;= 7 ~ 5L;
+    <t>case_when(_x000D_
+((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 == 0 ~ 0l;_x000D_
+((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt; 0 &amp; ((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &lt; 1 ~ 1l;_x000D_
+((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt;= 1 &amp; ((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &lt; 3 ~ 2l;_x000D_
+((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt;= 3 &amp; ((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &lt; 5 ~ 3l;_x000D_
+((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt;= 5 &amp; ((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &lt; 7 ~ 4l;_x000D_
+((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt;= 7 ~ 5l;_x000D_
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
-    <t>Y8Q119A</t>
-  </si>
-  <si>
-    <t>Walking briskly_frequency. Self-reported by participants. Questions adapted from Active Australia’s 1999 National Physical Activity Survey. Question is : "Please state how many times you did each type of activity and how much time you spent altogether doing each type of activity last week: Walking briskly (for recreation or exercise, or to get from place to place). 
-(If you did not do an activity, please write “0” in the boxes)". Only count activities that lasted for 10 minutes or more; add up all the times you spent in each activity to get the total time for each activity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALSWH data dictionary (PA-survey 2 and later surveys explanations): https://alswh.org.au/wp-content/uploads/2020/08/DDSSection2.5PA_S2andlater.pdf
-Heesch KC, van Gellecum YR, Burton NW, van Uffelen JG, Brown WJ. Physical activity, walking, and quality of life in women with depressive symptoms. American journal of preventive medicine. 2015 Mar 1;48(3):281-91.</t>
-  </si>
-  <si>
-    <t>case_when(
-Y8Q119A &gt; 1 ~ 1L;
-Y8Q119A &lt;= 5 ~ 2L;
-Y8Q119A &gt;= 6 ~ 3L;
+    <t>case_when(_x000D_
+y8q119a &gt; 1 ~ 1l;_x000D_
+y8q119a &lt;= 5 ~ 2l;_x000D_
+y8q119a &gt;= 6 ~ 3l;_x000D_
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
-    <t>Y8Q120A;
-Y8Q120B</t>
-  </si>
-  <si>
-    <t>LTPA_indiviudal sports; 
-LTPA_team sports</t>
-  </si>
-  <si>
-    <t>LTPA_individual sports. Self-reported. Question is "In the last 12 months, have you regularly participated in Individual sport (eg swimming, tennis, karate, gymnastics)? Response options are yes and no.
-Please mark Yes if you can’t currently play because of injury. ;
-LTPA_individual sports. Self-reported. Question is "In the last 12 months, have you regularly participated in Team sport (eg football, cricket, netball)?Response options are yes and no.
-Please mark Yes if you can’t currently play because of injury.</t>
-  </si>
-  <si>
-    <t>1= Yes
-0= No
-.= Missing</t>
-  </si>
-  <si>
-    <t>case_when(
-Y8Q120A == 1 ~1L;
-Y8Q120B == 1 ~ 1L;
-(Y8Q120A == 0) &amp; (Y8Q120B == 0) ~ 0L;
+    <t>case_when(_x000D_
+y8q120a == 1 ~1l;_x000D_
+y8q120b == 1 ~ 1l;_x000D_
+(y8q120a == 0) &amp; (y8q120b == 0) ~ 0l;_x000D_
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
-    <t>Y8Q119B; 
-Y8Q119C;
-Y8Q120A;
-Y8Q120B</t>
-  </si>
-  <si>
-    <t>Moderate lesiure time activity_frequency; 
-Vigorous lesiure time activity_frequency</t>
-  </si>
-  <si>
-    <t>Moderate leisure time activity_frequency. Self-reported by participants.Questions adapted from Active Australia’s 1999 National Physical Activity Survey. Question is "Please state how much time you spent altogether doing each type of activity last week: Moderate leisure activity (like social tennis, moderate exercise classes, recreational swimming, dancing).
-(If you did not do an activity, please write “0” in the boxes)". Only count activities that lasted for 10 minutes or more; add up all the times you spent in each activity to get the total time for each activity.Questions adapted from Active Australia’s 1999 National Physical Activity Survey.;
-Vigorous lesiure time activity_frequency. Self-reported by participants.Questions adapted from Active Australia’s 1999 National Physical Activity Survey. Question is "Please state how many times you did each type of activity last week: Vigorous leisure activity (that makes you breathe harder or puff and pant like aerobics, competitive sport, vigorous cycling, running, swimming).
-(If you did not do an activity, please write “0” in the boxes)". Only count activities that lasted for 10 minutes or more; add up all the times you spent in each activity to get the total time for each activity.Questions adapted from Active Australia’s 1999 National Physical Activity Survey.</t>
-  </si>
-  <si>
-    <t>case_when(
-(Y8Q119B == 0) &amp; (Y8Q119C == 0) &amp; (Y8Q120A== 0) &amp; (Y8Q120B== 0) ~ 0L;
-!is.na(Y8Q119B) ~ 1L; 
-!is.na(Y8Q119C) ~ 1L;
-Y8Q120A== 1 ~ 1L;
-Y8Q120B== 1 ~ 1L;
+    <t>case_when(_x000D_
+(y8q119b == 0) &amp; (y8q119c == 0) &amp; (y8q120a== 0) &amp; (y8q120b== 0) ~ 0l;_x000D_
+!is.na(y8q119b) ~ 1l; _x000D_
+!is.na(y8q119c) ~ 1l;_x000D_
+y8q120a== 1 ~ 1l;_x000D_
+y8q120b== 1 ~ 1l;_x000D_
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
-    <t>Y8Q11A;
-Y8Q11B;
-Y8Q11C;
-Y8Q11D;
-Y8Q11E;
-Y8Q11F;
-Y8Q11G;
-Y8Q11H;
-Y8Q11I;
-Y8Q11J</t>
-  </si>
-  <si>
-    <t>Health limit: vigorous activities;
-Health limit: moderate activities;
-Health limit: lifting or carrying;
-Health limit: climbing flights stairs;
-Health limit: climbing one flight stairs;
-Health limit: bending, kneeling or stooping;
-Health limit: walking one kilometre;
-Health limit: walking half kilometre;
-Health limit: walking 100 metres;
-Health limit: bathing or dressing</t>
-  </si>
-  <si>
-    <t>1=Yes, limited a lot
-2= Yes, limited a little
-3= Not, not limited at all
-.=Missing</t>
-  </si>
-  <si>
-    <t>rowMeans(mutate(.,
-temp_Y8Q11A = 50 * Y8Q11A - 50, 
-temp_Y8Q11B = 50 * Y8Q11B - 50,
-temp_Y8Q11C = 50 * Y8Q11C - 50,
-temp_Y8Q11D = 50 * Y8Q11D - 50,
-temp_Y8Q11E = 50 * Y8Q11E - 50,
-temp_Y8Q11F = 50 * Y8Q11F - 50,
-temp_Y8Q11G = 50 * Y8Q11G - 50,
-temp_Y8Q11H = 50 * Y8Q11H - 50,
-temp_Y8Q11I = 50 * Y8Q11I - 50,
-temp_Y8Q11J = 50 * Y8Q11J - 50) %&gt;%
-select(temp_Y8Q11A, temp_Y8Q11B, temp_Y8Q11C, temp_Y8Q11D, temp_Y8Q11E,
-temp_Y8Q11F, temp_Y8Q11G, temp_Y8Q11H, temp_Y8Q11I, temp_Y8Q11J), 
+    <t>rowMeans(mutate(.,_x000D_
+temp_y8q11a = 50 * y8q11a - 50, _x000D_
+temp_y8q11b = 50 * y8q11b - 50,_x000D_
+temp_y8q11c = 50 * y8q11c - 50,_x000D_
+temp_y8q11d = 50 * y8q11d - 50,_x000D_
+temp_y8q11e = 50 * y8q11e - 50,_x000D_
+temp_y8q11f = 50 * y8q11f - 50,_x000D_
+temp_y8q11g = 50 * y8q11g - 50,_x000D_
+temp_y8q11h = 50 * y8q11h - 50,_x000D_
+temp_y8q11i = 50 * y8q11i - 50,_x000D_
+temp_y8q11j = 50 * y8q11j - 50) %&gt;%_x000D_
+select(temp_y8q11a, temp_y8q11b, temp_y8q11c, temp_y8q11d, temp_y8q11e,_x000D_
+temp_y8q11f, temp_y8q11g, temp_y8q11h, temp_y8q11i, temp_y8q11j), _x000D_
 na.rm = TRUE)</t>
   </si>
   <si>
-    <t>rowSums(mutate(.,
-temp_Y8Q11A = as.numeric(!is.na(Y8Q11A)), 
-temp_Y8Q11B = as.numeric(!is.na(Y8Q11B)),
-temp_Y8Q11C = as.numeric(!is.na(Y8Q11C)),
-temp_Y8Q11D = as.numeric(!is.na(Y8Q11D)),
-temp_Y8Q11E = as.numeric(!is.na(Y8Q11E)),
-temp_Y8Q11F = as.numeric(!is.na(Y8Q11F)),
-temp_Y8Q11G = as.numeric(!is.na(Y8Q11G)),
-temp_Y8Q11H = as.numeric(!is.na(Y8Q11H)),
-temp_Y8Q11I = as.numeric(!is.na(Y8Q11I)),
-temp_Y8Q11J = as.numeric(!is.na(Y8Q11J))) %&gt;%
-select(temp_Y8Q11A, temp_Y8Q11B, temp_Y8Q11C, temp_Y8Q11D, temp_Y8Q11E,
-temp_Y8Q11F, temp_Y8Q11G, temp_Y8Q11H, temp_Y8Q11I, temp_Y8Q11J), 
+    <t>rowSums(mutate(.,_x000D_
+temp_y8q11a = as.numeric(!is.na(y8q11a)), _x000D_
+temp_y8q11b = as.numeric(!is.na(y8q11b)),_x000D_
+temp_y8q11c = as.numeric(!is.na(y8q11c)),_x000D_
+temp_y8q11d = as.numeric(!is.na(y8q11d)),_x000D_
+temp_y8q11e = as.numeric(!is.na(y8q11e)),_x000D_
+temp_y8q11f = as.numeric(!is.na(y8q11f)),_x000D_
+temp_y8q11g = as.numeric(!is.na(y8q11g)),_x000D_
+temp_y8q11h = as.numeric(!is.na(y8q11h)),_x000D_
+temp_y8q11i = as.numeric(!is.na(y8q11i)),_x000D_
+temp_y8q11j = as.numeric(!is.na(y8q11j))) %&gt;%_x000D_
+select(temp_y8q11a, temp_y8q11b, temp_y8q11c, temp_y8q11d, temp_y8q11e,_x000D_
+temp_y8q11f, temp_y8q11g, temp_y8q11h, temp_y8q11i, temp_y8q11j), _x000D_
 na.rm = TRUE)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Sitting time in mins during weekday. Self- reported by participants. Question is "Now think about all of the time you spend sitting during each day while at home, at work, while getting from place to place or during your spare time.In total, how much time do you typically spend sitting down while doing things like visiting friends, driving, reading, watching television or working at a desk or computer?". 
-Participant reported hours and minutes spent sitting on a usual week day and usual weekend. Using this information, this variable is derived as total weekly sitting time in minutes during </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>weekday and weekend.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <t>recode(0=NA; 1=1; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>The category "No" was not produced since the information is limited to the last 3 years.</t>
+  </si>
+  <si>
+    <t>Self-reported depression. Question is " In the last 3 years have you been diagnosed or treated for depression?" Response options: Yes, No;</t>
+  </si>
+  <si>
+    <t>Self-reported Depression</t>
+  </si>
+  <si>
+    <t>y8q24m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1841,13 +1831,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1860,7 +1843,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1885,12 +1868,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1904,7 +1881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1922,19 +1899,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1943,12 +1914,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2289,13 +2259,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E8173B-75E7-48BF-A0E5-5399D58BE189}">
-  <dimension ref="A1:U84"/>
+  <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="S86" sqref="S86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2308,21 +2278,20 @@
     <col min="6" max="6" width="8.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="2"/>
     <col min="8" max="8" width="8.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" style="9" customWidth="1"/>
     <col min="10" max="10" width="25.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="26.42578125" style="2" customWidth="1"/>
     <col min="12" max="12" width="30.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" style="9" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="21.28515625" style="2" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" style="2" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" style="2" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" style="2" customWidth="1"/>
     <col min="19" max="19" width="19.85546875" style="2" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2347,10 +2316,10 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -2359,7 +2328,7 @@
       <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -2380,4230 +2349,4090 @@
       <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="13" t="s">
-        <v>295</v>
+      <c r="I2" s="8"/>
+      <c r="J2" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>26</v>
+        <v>292</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="S2" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="13" t="s">
-        <v>297</v>
+        <v>32</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="11" t="s">
+        <v>293</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>35</v>
+        <v>295</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>57</v>
+      <c r="I4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="10"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S4" s="3">
         <v>1</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="13" t="s">
-        <v>302</v>
+      <c r="I5" s="8"/>
+      <c r="J5" s="11" t="s">
+        <v>297</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>220</v>
+        <v>299</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="1:21" ht="102" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>305</v>
+      <c r="I6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>386</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>308</v>
+        <v>301</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>442</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="1:21" ht="127.5" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>57</v>
+      <c r="I7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="10"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>311</v>
+      <c r="I8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>387</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>314</v>
+        <v>304</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>57</v>
+      <c r="I9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="10"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="13" t="s">
-        <v>57</v>
+      <c r="I10" s="8"/>
+      <c r="J10" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="10"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-    </row>
-    <row r="11" spans="1:21" ht="191.25" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="13" t="s">
-        <v>316</v>
+      <c r="I11" s="8"/>
+      <c r="J11" s="11" t="s">
+        <v>388</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>319</v>
+        <v>305</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>444</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>57</v>
+      <c r="I12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="10"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-    </row>
-    <row r="13" spans="1:21" ht="114.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>321</v>
+      <c r="I13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>389</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>324</v>
+        <v>308</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>445</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="1:21" ht="114.75" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>321</v>
+      <c r="I14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>389</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>324</v>
+        <v>308</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>445</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="1:21" ht="102" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="171" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>327</v>
+      <c r="I15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>390</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>330</v>
+        <v>311</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>446</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="13" t="s">
-        <v>333</v>
+      <c r="I16" s="8"/>
+      <c r="J16" s="11" t="s">
+        <v>312</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>336</v>
+        <v>314</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>333</v>
+      <c r="I17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>312</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>336</v>
+        <v>314</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="13" t="s">
-        <v>338</v>
+      <c r="I18" s="8"/>
+      <c r="J18" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>336</v>
+        <v>319</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-    </row>
-    <row r="19" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>338</v>
+      <c r="I19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>336</v>
+        <v>319</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="13" t="s">
-        <v>342</v>
+      <c r="I20" s="8"/>
+      <c r="J20" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>336</v>
+        <v>322</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-    </row>
-    <row r="21" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="13" t="s">
-        <v>344</v>
+      <c r="I21" s="8"/>
+      <c r="J21" s="11" t="s">
+        <v>391</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>336</v>
+        <v>324</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="U21" s="3"/>
-    </row>
-    <row r="22" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>344</v>
+      <c r="I22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>391</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>336</v>
+        <v>324</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="10"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="10"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="10"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="10"/>
+      <c r="M24" s="8"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="F25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="13" t="s">
-        <v>350</v>
+      <c r="I25" s="8"/>
+      <c r="J25" s="11" t="s">
+        <v>393</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>336</v>
+        <v>327</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="U25" s="3"/>
-    </row>
-    <row r="26" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="13" t="s">
-        <v>354</v>
+      <c r="I26" s="8"/>
+      <c r="J26" s="11" t="s">
+        <v>394</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>336</v>
+        <v>329</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="T26" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="U26" s="3"/>
-    </row>
-    <row r="27" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="H27" s="3"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="N27" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="O27" s="3" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="H28" s="3"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="13" t="s">
-        <v>57</v>
+      <c r="I28" s="8"/>
+      <c r="J28" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="10"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-    </row>
-    <row r="29" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>57</v>
+      <c r="I29" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="10"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="3"/>
       <c r="O29" s="2" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="U29" s="3"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="H30" s="3"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="13" t="s">
-        <v>57</v>
+      <c r="I30" s="8"/>
+      <c r="J30" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="10"/>
+      <c r="M30" s="8"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="H31" s="3"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="13" t="s">
-        <v>366</v>
+      <c r="I31" s="8"/>
+      <c r="J31" s="11" t="s">
+        <v>396</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="H32" s="3"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="13" t="s">
-        <v>369</v>
+      <c r="I32" s="8"/>
+      <c r="J32" s="11" t="s">
+        <v>397</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H33" s="3"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="13" t="s">
-        <v>372</v>
+      <c r="I33" s="8"/>
+      <c r="J33" s="11" t="s">
+        <v>398</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H34" s="3"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="13" t="s">
-        <v>375</v>
+      <c r="I34" s="8"/>
+      <c r="J34" s="11" t="s">
+        <v>399</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>336</v>
+        <v>341</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-    </row>
-    <row r="35" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H35" s="3"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="13" t="s">
-        <v>378</v>
+      <c r="I35" s="8"/>
+      <c r="J35" s="11" t="s">
+        <v>400</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>381</v>
+        <v>343</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H36" s="3"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="13" t="s">
-        <v>148</v>
+      <c r="I36" s="8"/>
+      <c r="J36" s="11" t="s">
+        <v>401</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>336</v>
+        <v>348</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="H37" s="3"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="13" t="s">
-        <v>57</v>
+      <c r="I37" s="8"/>
+      <c r="J37" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="10"/>
+      <c r="M37" s="8"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-    </row>
-    <row r="38" spans="1:21" ht="89.25" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="F38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="H38" s="3"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="N38" s="3"/>
+      <c r="O38" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="S38" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-    </row>
-    <row r="39" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>57</v>
+      <c r="I39" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-      <c r="M39" s="10"/>
+      <c r="M39" s="8"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="1:21" ht="102" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="F40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="N40" s="3"/>
+      <c r="O40" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="N40" s="3"/>
-      <c r="O40" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="S40" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>57</v>
+      <c r="I41" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
-      <c r="M41" s="10"/>
+      <c r="M41" s="8"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="H42" s="3"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="13" t="s">
-        <v>57</v>
+      <c r="I42" s="8"/>
+      <c r="J42" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-      <c r="M42" s="10"/>
+      <c r="M42" s="8"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-    </row>
-    <row r="43" spans="1:21" ht="191.25" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="F43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="H43" s="3"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="13" t="s">
-        <v>399</v>
+      <c r="I43" s="8"/>
+      <c r="J43" s="11" t="s">
+        <v>404</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="M43" s="10" t="s">
-        <v>402</v>
+        <v>354</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>449</v>
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T43" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="U43" s="3"/>
-    </row>
-    <row r="44" spans="1:21" ht="102" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="102" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>404</v>
+      <c r="I44" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>405</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>407</v>
+        <v>356</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>450</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3" t="s">
-        <v>408</v>
+        <v>357</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-    </row>
-    <row r="45" spans="1:21" ht="63.75" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="F45" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>409</v>
+      <c r="I45" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>406</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="M45" s="10" t="s">
-        <v>412</v>
+        <v>359</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>451</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-    </row>
-    <row r="46" spans="1:21" ht="63.75" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>409</v>
+      <c r="I46" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>406</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="M46" s="10" t="s">
-        <v>412</v>
+        <v>359</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>451</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="U46" s="3"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="H47" s="3"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="13" t="s">
-        <v>415</v>
+      <c r="I47" s="8"/>
+      <c r="J47" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="M47" s="10" t="s">
-        <v>418</v>
+        <v>362</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>363</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-    </row>
-    <row r="48" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="S47" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J48" s="13" t="s">
-        <v>420</v>
+      <c r="I48" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>364</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>421</v>
+        <v>365</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="M48" s="10" t="s">
-        <v>423</v>
+        <v>366</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>452</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-    </row>
-    <row r="49" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="F49" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="M49" s="10" t="s">
-        <v>428</v>
+      <c r="I49" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="N49" s="3"/>
       <c r="O49" s="3" t="s">
-        <v>429</v>
+        <v>368</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="T49" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="U49" s="3"/>
-    </row>
-    <row r="50" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="S49" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="J50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="10"/>
+      <c r="I50" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>368</v>
+      </c>
       <c r="P50" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="U50" s="3"/>
-    </row>
-    <row r="51" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="S50" s="11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>433</v>
+      <c r="I51" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>434</v>
+        <v>369</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="M51" s="10" t="s">
-        <v>428</v>
+        <v>370</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="U51" s="3"/>
-    </row>
-    <row r="52" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="S51" s="11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>433</v>
+      <c r="I52" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>434</v>
+        <v>369</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>428</v>
+        <v>370</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
+      <c r="O52" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="P52" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="U52" s="3"/>
-    </row>
-    <row r="53" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="S52" s="11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="270.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="J53" s="13" t="s">
-        <v>437</v>
+      <c r="I53" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="M53" s="10" t="s">
-        <v>428</v>
+        <v>414</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>454</v>
       </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="U53" s="3"/>
-    </row>
-    <row r="54" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="S53" s="11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="J54" s="13" t="s">
-        <v>441</v>
+      <c r="I54" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>415</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>442</v>
+        <v>371</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="M54" s="10" t="s">
-        <v>428</v>
+        <v>372</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-    </row>
-    <row r="55" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>57</v>
+      <c r="I55" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-      <c r="M55" s="10"/>
+      <c r="M55" s="8"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="J56" s="13" t="s">
-        <v>57</v>
+      <c r="I56" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-      <c r="M56" s="10"/>
+      <c r="M56" s="8"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>57</v>
+      <c r="I57" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
-      <c r="M57" s="10"/>
+      <c r="M57" s="8"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-    </row>
-    <row r="58" spans="1:21" ht="63.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="J58" s="13" t="s">
-        <v>444</v>
+      <c r="I58" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>483</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="M58" s="10" t="s">
-        <v>447</v>
+        <v>481</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
+      <c r="O58" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="P58" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="U58" s="3"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="13" t="s">
-        <v>57</v>
+      <c r="I59" s="8"/>
+      <c r="J59" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
-      <c r="M59" s="10"/>
+      <c r="M59" s="8"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="171" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="13" t="s">
-        <v>449</v>
+      <c r="I60" s="8"/>
+      <c r="J60" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="M60" s="10" t="s">
-        <v>336</v>
+        <v>373</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="13" t="s">
-        <v>57</v>
+      <c r="I61" s="8"/>
+      <c r="J61" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
-      <c r="M61" s="10"/>
+      <c r="M61" s="8"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="13" t="s">
-        <v>57</v>
+      <c r="I62" s="8"/>
+      <c r="J62" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-      <c r="M62" s="10"/>
+      <c r="M62" s="8"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="13" t="s">
-        <v>57</v>
+      <c r="I63" s="8"/>
+      <c r="J63" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="10"/>
+      <c r="M63" s="8"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="13" t="s">
-        <v>57</v>
+      <c r="I64" s="8"/>
+      <c r="J64" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="10"/>
+      <c r="M64" s="8"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="342" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="13" t="s">
-        <v>452</v>
+      <c r="I65" s="8"/>
+      <c r="J65" s="11" t="s">
+        <v>374</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="M65" s="10" t="s">
-        <v>336</v>
+        <v>375</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-    </row>
-    <row r="66" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="J66" s="13" t="s">
-        <v>57</v>
+      <c r="I66" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-      <c r="M66" s="10"/>
+      <c r="M66" s="8"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H67" s="3"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="13" t="s">
-        <v>455</v>
+      <c r="I67" s="8"/>
+      <c r="J67" s="11" t="s">
+        <v>376</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="M67" s="10" t="s">
-        <v>336</v>
+        <v>377</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>458</v>
+        <v>378</v>
       </c>
       <c r="O67" s="3"/>
       <c r="P67" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="1:21" ht="114.75" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-      <c r="I68" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="J68" s="13" t="s">
-        <v>455</v>
+      <c r="I68" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>376</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="M68" s="10" t="s">
-        <v>336</v>
+        <v>377</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>458</v>
+        <v>378</v>
       </c>
       <c r="O68" s="3"/>
       <c r="P68" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="S68" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-    </row>
-    <row r="69" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="S68" s="11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J69" s="13" t="s">
-        <v>460</v>
+      <c r="I69" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>379</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="M69" s="10" t="s">
-        <v>336</v>
+        <v>380</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N69" s="3"/>
       <c r="O69" s="3" t="s">
-        <v>463</v>
+        <v>381</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-    </row>
-    <row r="70" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="J70" s="13" t="s">
-        <v>57</v>
+      <c r="I70" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
-      <c r="M70" s="10"/>
+      <c r="M70" s="8"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-    </row>
-    <row r="71" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="J71" s="13" t="s">
-        <v>57</v>
+      <c r="I71" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
-      <c r="M71" s="10"/>
+      <c r="M71" s="8"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-    </row>
-    <row r="72" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="J72" s="13" t="s">
-        <v>57</v>
+      <c r="I72" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
-      <c r="M72" s="10"/>
+      <c r="M72" s="8"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-    </row>
-    <row r="73" spans="1:21" ht="140.25" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>57</v>
+      <c r="I73" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
-      <c r="M73" s="10"/>
+      <c r="M73" s="8"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-    </row>
-    <row r="74" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="J74" s="13" t="s">
-        <v>57</v>
+      <c r="I74" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
-      <c r="M74" s="10"/>
+      <c r="M74" s="8"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-    </row>
-    <row r="75" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="J75" s="13" t="s">
-        <v>57</v>
+      <c r="I75" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
-      <c r="M75" s="10"/>
+      <c r="M75" s="8"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-    </row>
-    <row r="76" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="327.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H76" s="3"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="13" t="s">
-        <v>465</v>
+      <c r="I76" s="8"/>
+      <c r="J76" s="11" t="s">
+        <v>417</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="L76" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="M76" s="10" t="s">
-        <v>336</v>
+        <v>383</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>467</v>
+        <v>384</v>
       </c>
       <c r="O76" s="3"/>
       <c r="P76" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-    </row>
-    <row r="77" spans="1:21" ht="77.25" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="S76" s="11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I77" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="J77" s="13" t="s">
-        <v>465</v>
+      <c r="J77" s="11" t="s">
+        <v>417</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="L77" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="M77" s="10" t="s">
-        <v>336</v>
+        <v>383</v>
+      </c>
+      <c r="L77" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>467</v>
+        <v>384</v>
       </c>
       <c r="O77" s="3"/>
       <c r="P77" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="S77" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-    </row>
-    <row r="78" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="S77" s="11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="342" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="J78" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="M78" s="10"/>
+      <c r="I78" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="M78" s="8"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="S78" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-    </row>
-    <row r="79" spans="1:21" ht="76.5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="S78" s="11" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="J79" s="13" t="s">
-        <v>57</v>
+      <c r="I79" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
-      <c r="M79" s="10"/>
+      <c r="M79" s="8"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-    </row>
-    <row r="80" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
-      <c r="I80" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="J80" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="M80" s="10" t="s">
-        <v>477</v>
+      <c r="I80" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="S80" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-    </row>
-    <row r="81" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="S80" s="11" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
-      <c r="I81" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="J81" s="13" t="s">
-        <v>57</v>
+      <c r="I81" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
-      <c r="M81" s="10"/>
+      <c r="M81" s="8"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
-    </row>
-    <row r="82" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
-      <c r="I82" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="J82" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="M82" s="10" t="s">
-        <v>336</v>
+      <c r="I82" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="M82" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="S82" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="S82" s="11" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>484</v>
+      <c r="I83" s="8"/>
+      <c r="J83" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>425</v>
       </c>
       <c r="L83" s="3"/>
-      <c r="M83" s="10" t="s">
-        <v>485</v>
+      <c r="M83" s="8" t="s">
+        <v>456</v>
       </c>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R83" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="T83" s="3"/>
-      <c r="U83" s="3"/>
-    </row>
-    <row r="84" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="S83" s="11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>293</v>
-      </c>
       <c r="H84" s="3"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>484</v>
+      <c r="I84" s="8"/>
+      <c r="J84" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>425</v>
       </c>
       <c r="L84" s="3"/>
-      <c r="M84" s="10" t="s">
-        <v>485</v>
+      <c r="M84" s="8" t="s">
+        <v>456</v>
       </c>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R84" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S84" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="T84" s="3"/>
-      <c r="U84" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="S84" s="11" t="s">
+        <v>478</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U84" xr:uid="{E2AE202E-3036-4C4F-A2B8-1E3109A6638C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U84">
+  <autoFilter ref="A1:S84" xr:uid="{E2AE202E-3036-4C4F-A2B8-1E3109A6638C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S84">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>

--- a/data_processing_elements-AWH.xlsx
+++ b/data_processing_elements-AWH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atrottier\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A571A67F-86D7-46CD-BFC1-FA0F667480DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E8E563-B817-4DF6-986D-E412DABC5818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="485">
   <si>
     <t>index</t>
   </si>
@@ -1796,6 +1796,9 @@
   </si>
   <si>
     <t>y8q24m</t>
+  </si>
+  <si>
+    <t>recode(1=1; 2=2; 3=3; 4=3; 5=3; 6=3; ELSE=NA)</t>
   </si>
 </sst>
 </file>
@@ -2262,10 +2265,10 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S86" sqref="S86"/>
+      <selection pane="bottomRight" activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4207,7 +4210,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -4232,24 +4235,30 @@
         <v>158</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="8"/>
+        <v>402</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>447</v>
+      </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>61</v>
+        <v>484</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">

--- a/data_processing_elements-AWH.xlsx
+++ b/data_processing_elements-AWH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E8E563-B817-4DF6-986D-E412DABC5818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EA4E7A-6D89-4ED0-B5C5-16FEF192026C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1639,9 +1639,6 @@
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
-    <t>recode(1=2; 2=1; 3=1; 4=1; 5=1; 6=1; 7=1; ELSE=NA</t>
-  </si>
-  <si>
     <t>ifelse(is.na(waistmmave), NA, 2)</t>
   </si>
   <si>
@@ -1716,39 +1713,6 @@
 temp_y8q64btotmins = y8q64btotmins*2) %&gt;%_x000D_
 select(temp_y8q64atotmins, temp_y8q64btotmins),_x000D_
 na.rm=TRUE) / 7 / 60</t>
-  </si>
-  <si>
-    <t>case_when(_x000D_
-((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 == 0 ~ 0l;_x000D_
-((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt; 0 &amp; ((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &lt; 1 ~ 1l;_x000D_
-((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt;= 1 &amp; ((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &lt; 3 ~ 2l;_x000D_
-((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt;= 3 &amp; ((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &lt; 5 ~ 3l;_x000D_
-((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt;= 5 &amp; ((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &lt; 7 ~ 4l;_x000D_
-((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt;= 7 ~ 5l;_x000D_
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>case_when(_x000D_
-y8q119a &gt; 1 ~ 1l;_x000D_
-y8q119a &lt;= 5 ~ 2l;_x000D_
-y8q119a &gt;= 6 ~ 3l;_x000D_
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>case_when(_x000D_
-y8q120a == 1 ~1l;_x000D_
-y8q120b == 1 ~ 1l;_x000D_
-(y8q120a == 0) &amp; (y8q120b == 0) ~ 0l;_x000D_
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>case_when(_x000D_
-(y8q119b == 0) &amp; (y8q119c == 0) &amp; (y8q120a== 0) &amp; (y8q120b== 0) ~ 0l;_x000D_
-!is.na(y8q119b) ~ 1l; _x000D_
-!is.na(y8q119c) ~ 1l;_x000D_
-y8q120a== 1 ~ 1l;_x000D_
-y8q120b== 1 ~ 1l;_x000D_
-ELSE ~ NA_integer_)</t>
   </si>
   <si>
     <t>rowMeans(mutate(.,_x000D_
@@ -1799,6 +1763,42 @@
   </si>
   <si>
     <t>recode(1=1; 2=2; 3=3; 4=3; 5=3; 6=3; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>recode(1=2; 2=1; 3=1; 4=1; 5=1; 6=1; 7=1; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>case_when(
+(y8q119b == 0) &amp; (y8q119c == 0) &amp; (y8q120a== 0) &amp; (y8q120b== 0) ~ 0L;
+!is.na(y8q119b) ~ 1L; 
+!is.na(y8q119c) ~ 1L;
+y8q120a== 1 ~ 1L;
+y8q120b== 1 ~ 1L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>case_when(
+y8q120a == 1 ~1L;
+y8q120b == 1 ~ 1L;
+(y8q120a == 0) &amp; (y8q120b == 0) ~ 0L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>case_when(
+y8q119a &gt; 1 ~ 1L;
+y8q119a &lt;= 5 ~ 2L;
+y8q119a &gt;= 6 ~ 3L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>case_when(
+((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 == 0 ~ 0L;
+((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt; 0 &amp; ((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &lt; 1 ~ 1L;
+((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt;= 1 &amp; ((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &lt; 3 ~ 2L;
+((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt;= 3 &amp; ((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &lt; 5 ~ 3L;
+((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt;= 5 &amp; ((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &lt; 7 ~ 4L;
+((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt;= 7 ~ 5L;
+ELSE ~ NA_integer_)</t>
   </si>
 </sst>
 </file>
@@ -2265,10 +2265,10 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O39" sqref="O39"/>
+      <selection pane="bottomRight" activeCell="R82" sqref="R82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,7 +2291,7 @@
     <col min="16" max="16" width="12.7109375" style="2" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" style="2" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="62.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -3030,7 +3030,7 @@
         <v>40</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -3401,7 +3401,7 @@
         <v>34</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -4056,7 +4056,7 @@
         <v>34</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -4195,7 +4195,7 @@
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>25</v>
@@ -4258,7 +4258,7 @@
         <v>40</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>25</v>
@@ -4658,7 +4658,7 @@
         <v>207</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
@@ -4762,7 +4762,7 @@
         <v>207</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="256.5" x14ac:dyDescent="0.25">
@@ -4814,7 +4814,7 @@
         <v>207</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
@@ -4865,7 +4865,7 @@
         <v>207</v>
       </c>
       <c r="S51" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
@@ -4906,7 +4906,7 @@
       </c>
       <c r="N52" s="3"/>
       <c r="O52" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>25</v>
@@ -4918,7 +4918,7 @@
         <v>207</v>
       </c>
       <c r="S52" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="270.75" x14ac:dyDescent="0.25">
@@ -4969,7 +4969,7 @@
         <v>207</v>
       </c>
       <c r="S53" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
@@ -5183,20 +5183,20 @@
         <v>191</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>453</v>
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>50</v>
@@ -5208,7 +5208,7 @@
         <v>40</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -5672,7 +5672,7 @@
         <v>207</v>
       </c>
       <c r="S68" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="199.5" x14ac:dyDescent="0.25">
@@ -6048,10 +6048,10 @@
         <v>34</v>
       </c>
       <c r="S76" s="11" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="327.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>207</v>
       </c>
       <c r="S77" s="11" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="342" x14ac:dyDescent="0.25">
@@ -6148,7 +6148,7 @@
         <v>207</v>
       </c>
       <c r="S78" s="11" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
@@ -6244,7 +6244,7 @@
         <v>207</v>
       </c>
       <c r="S80" s="11" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -6340,7 +6340,7 @@
         <v>207</v>
       </c>
       <c r="S82" s="11" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
@@ -6387,7 +6387,7 @@
         <v>34</v>
       </c>
       <c r="S83" s="11" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
@@ -6436,7 +6436,7 @@
         <v>34</v>
       </c>
       <c r="S84" s="11" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/data_processing_elements-AWH.xlsx
+++ b/data_processing_elements-AWH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EA4E7A-6D89-4ED0-B5C5-16FEF192026C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B04E32-EF9E-4776-82D2-5C2A0B2303A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="486">
   <si>
     <t>index</t>
   </si>
@@ -1201,9 +1201,6 @@
     <t>.=missing ; .=missing</t>
   </si>
   <si>
-    <t>y8sfhealth</t>
-  </si>
-  <si>
     <t>General health</t>
   </si>
   <si>
@@ -1237,18 +1234,12 @@
     <t>Cognitive Test score</t>
   </si>
   <si>
-    <t>sleepduration</t>
-  </si>
-  <si>
     <t>Sleep duration</t>
   </si>
   <si>
     <t>hr</t>
   </si>
   <si>
-    <t>sleepquality</t>
-  </si>
-  <si>
     <t>Sleep quality</t>
   </si>
   <si>
@@ -1267,21 +1258,6 @@
     <t>idproj</t>
   </si>
   <si>
-    <t>y8q125</t>
-  </si>
-  <si>
-    <t>y8q101; y8q102</t>
-  </si>
-  <si>
-    <t>y8q102</t>
-  </si>
-  <si>
-    <t>y8q127</t>
-  </si>
-  <si>
-    <t>y8q65</t>
-  </si>
-  <si>
     <t>waistmmave</t>
   </si>
   <si>
@@ -1301,39 +1277,6 @@
   </si>
   <si>
     <t>cholesterol</t>
-  </si>
-  <si>
-    <t>hdl_Chol</t>
-  </si>
-  <si>
-    <t>ldl_Chol</t>
-  </si>
-  <si>
-    <t>cholesterol ; hdl_Chol ; triglycerides</t>
-  </si>
-  <si>
-    <t>triglycerides</t>
-  </si>
-  <si>
-    <t>y8q121</t>
-  </si>
-  <si>
-    <t>y8q122</t>
-  </si>
-  <si>
-    <t>y8q59; y8q60</t>
-  </si>
-  <si>
-    <t>y8q59</t>
-  </si>
-  <si>
-    <t>y8q55</t>
-  </si>
-  <si>
-    <t>y8q53a ; y8q53b</t>
-  </si>
-  <si>
-    <t>y8q24c; y8q24d; y8q24r</t>
   </si>
   <si>
     <t>Self-reported heart disease; _x000D_
@@ -1341,67 +1284,27 @@
 Self-reported thrombosis</t>
   </si>
   <si>
-    <t>y8q24f; y8q24g; y8q24h</t>
-  </si>
-  <si>
     <t>Self-reported osteoarthritis;_x000D_
 Self-reported rheumatoid arthritis;_x000D_
 Self-reported other arthritis</t>
   </si>
   <si>
-    <t>y8q24a; y8q24b</t>
-  </si>
-  <si>
-    <t>y8q24z; y8q24aa; y8q25; y8q27a</t>
-  </si>
-  <si>
     <t>Skin cancer; Other cancer; Cervical cancer; Breast cancer;</t>
   </si>
   <si>
-    <t>y8q27b</t>
-  </si>
-  <si>
     <t>y8cesd10</t>
-  </si>
-  <si>
-    <t>y8q64atotmins; y8q64btotmins</t>
-  </si>
-  <si>
-    <t>y8q119a</t>
   </si>
   <si>
     <t>Walking briskly_frequency. Self-reported by participants. Questions adapted from Active Australia’s 1999 National Physical Activity Survey. Question is : "Please state how many times you did each type of activity and how much time you spent altogether doing each type of activity last week: Walking briskly (for recreation or exercise, or to get from place to place). _x000D_
 (If you did not do an activity, please write “0” in the boxes)". Only count activities that lasted for 10 minutes or more; add up all the times you spent in each activity to get the total time for each activity.</t>
   </si>
   <si>
-    <t>y8q120a;_x000D_
-y8q120b</t>
-  </si>
-  <si>
     <t>LTPA_indiviudal sports; _x000D_
 LTPA_team sports</t>
   </si>
   <si>
-    <t>y8q119b; _x000D_
-y8q119c;_x000D_
-y8q120a;_x000D_
-y8q120b</t>
-  </si>
-  <si>
     <t>Moderate lesiure time activity_frequency; _x000D_
 Vigorous lesiure time activity_frequency</t>
-  </si>
-  <si>
-    <t>y8q11a;_x000D_
-y8q11b;_x000D_
-y8q11c;_x000D_
-y8q11d;_x000D_
-y8q11e;_x000D_
-y8q11f;_x000D_
-y8q11g;_x000D_
-y8q11h;_x000D_
-y8q11i;_x000D_
-y8q11j</t>
   </si>
   <si>
     <t>Health limit: vigorous activities;_x000D_
@@ -1633,16 +1536,7 @@
     <t>format(as.Date(clinicdate, format = "%d/%m/%Y"), "%Y-%m-%d")</t>
   </si>
   <si>
-    <t>case_when(_x000D_
-y8q101 %in% c(2, 3) ~ 0L;_x000D_
-y8q102 %in% 1:9 ~ 1L;_x000D_
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
     <t>ifelse(is.na(waistmmave), NA, 2)</t>
-  </si>
-  <si>
-    <t>cholesterol - hdl_Chol - (triglycerides/2.2)</t>
   </si>
   <si>
     <t>Consider 1 piece or half-cup of fruits is approximatively 80 grams. _x000D_
@@ -1653,47 +1547,7 @@
 The answers "Less than one serve" and "5 serves or more" could not be harmonized, and are equal to NA in harmonized dataset.</t>
   </si>
   <si>
-    <t>case_when(_x000D_
-!is.na(y8q53b) ~ as.integer(y8q53b);_x000D_
-!is.na(y8q53a) ~ as.integer(y8q53a)*7; _x000D_
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>case_when(_x000D_
-y8y24c == 1 ~ 1L; _x000D_
-y8q24d == 1 ~ 1L;_x000D_
-y8q24r == 1 ~ 1L;_x000D_
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>case_when(_x000D_
-y8y24f == 1 ~ 1L; _x000D_
-y8q24g == 1 ~ 1L;_x000D_
-y8q24h == 1 ~ 1L;_x000D_
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>case_when(_x000D_
-y8y24a == 1 ~ 1L; _x000D_
-y8q24b == 1 ~ 1L;_x000D_
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
     <t>The category "Other" could not pe produced.</t>
-  </si>
-  <si>
-    <t>case_when(_x000D_
-y8y24a == 1 ~ 1L; _x000D_
-y8q24b == 1 ~ 2L;_x000D_
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>case_when(_x000D_
-y8q24z == 1 ~ 1L; _x000D_
-y8q24aa == 1 ~ 1L;_x000D_
-y8q25 == 1 ~ 1L;_x000D_
-y8q27a == 1 ~ 1L;_x000D_
-ELSE ~ NA_integer_)</t>
   </si>
   <si>
     <t>case_when( sleepduration &gt;= 0 &amp; sleepduration &lt; 6.25 ~ 1L;_x000D_
@@ -1708,97 +1562,247 @@
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
+    <t>recode(0=NA; 1=1; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>The category "No" was not produced since the information is limited to the last 3 years.</t>
+  </si>
+  <si>
+    <t>Self-reported depression. Question is " In the last 3 years have you been diagnosed or treated for depression?" Response options: Yes, No;</t>
+  </si>
+  <si>
+    <t>Self-reported Depression</t>
+  </si>
+  <si>
+    <t>recode(1=1; 2=2; 3=3; 4=3; 5=3; 6=3; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>recode(1=2; 2=1; 3=1; 4=1; 5=1; 6=1; 7=1; ELSE=NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleep duration. Average sleep duration in hours derived from sleep diary. A participant reported the time they felt asleep and the time they got out of bed for 8 days using the sleep diary. This variable represents the average sleep duration for these days days. 
+</t>
+  </si>
+  <si>
+    <t>y8Q125</t>
+  </si>
+  <si>
+    <t>y8Q101; y8Q102</t>
+  </si>
+  <si>
+    <t>case_when(_x000D_
+y8Q101 %in% c(2, 3) ~ 0L;_x000D_
+y8Q102 %in% 1:9 ~ 1L;_x000D_
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>y8Q102</t>
+  </si>
+  <si>
+    <t>y8Q127</t>
+  </si>
+  <si>
+    <t>y8Q65</t>
+  </si>
+  <si>
+    <t>y8Q121</t>
+  </si>
+  <si>
+    <t>y8Q122</t>
+  </si>
+  <si>
+    <t>y8Q59; y8Q60</t>
+  </si>
+  <si>
+    <t>y8Q59</t>
+  </si>
+  <si>
+    <t>y8Q55</t>
+  </si>
+  <si>
+    <t>y8Q53a ; y8Q53b</t>
+  </si>
+  <si>
+    <t>case_when(_x000D_
+!is.na(y8Q53b) ~ as.integer(y8Q53b);_x000D_
+!is.na(y8Q53a) ~ as.integer(y8Q53a)*7; _x000D_
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>y8Q24c; y8Q24d; y8Q24r</t>
+  </si>
+  <si>
+    <t>y8Q24f; y8Q24g; y8Q24h</t>
+  </si>
+  <si>
+    <t>y8Q24a; y8Q24b</t>
+  </si>
+  <si>
+    <t>y8Q24z; y8Q24aa; y8Q25; y8Q27a</t>
+  </si>
+  <si>
+    <t>case_when(_x000D_
+y8Q24z == 1 ~ 1L; _x000D_
+y8Q24aa == 1 ~ 1L;_x000D_
+y8Q25 == 1 ~ 1L;_x000D_
+y8Q27a == 1 ~ 1L;_x000D_
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>y8Q27b</t>
+  </si>
+  <si>
+    <t>y8Q24m</t>
+  </si>
+  <si>
+    <t>y8Q64atotmins; y8Q64btotmins</t>
+  </si>
+  <si>
     <t>rowSums(mutate(.,_x000D_
-temp_y8q64atotmins = y8q64atotmins*5,_x000D_
-temp_y8q64btotmins = y8q64btotmins*2) %&gt;%_x000D_
-select(temp_y8q64atotmins, temp_y8q64btotmins),_x000D_
+temp_y8Q64atotmins = y8Q64atotmins*5,_x000D_
+temp_y8Q64btotmins = y8Q64btotmins*2) %&gt;%_x000D_
+select(temp_y8Q64atotmins, temp_y8Q64btotmins),_x000D_
 na.rm=TRUE) / 7 / 60</t>
   </si>
   <si>
+    <t>case_when(
+((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 == 0 ~ 0L;
+((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 &gt; 0 &amp; ((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 &lt; 1 ~ 1L;
+((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 &gt;= 1 &amp; ((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 &lt; 3 ~ 2L;
+((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 &gt;= 3 &amp; ((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 &lt; 5 ~ 3L;
+((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 &gt;= 5 &amp; ((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 &lt; 7 ~ 4L;
+((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 &gt;= 7 ~ 5L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>y8Q119a</t>
+  </si>
+  <si>
+    <t>case_when(
+y8Q119a &gt; 1 ~ 1L;
+y8Q119a &lt;= 5 ~ 2L;
+y8Q119a &gt;= 6 ~ 3L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>y8Q120a;_x000D_
+y8Q120b</t>
+  </si>
+  <si>
+    <t>case_when(
+y8Q120a == 1 ~1L;
+y8Q120b == 1 ~ 1L;
+(y8Q120a == 0) &amp; (y8Q120b == 0) ~ 0L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>y8Q119b; _x000D_
+y8Q119c;_x000D_
+y8Q120a;_x000D_
+y8Q120b</t>
+  </si>
+  <si>
+    <t>case_when(
+(y8Q119b == 0) &amp; (y8Q119c == 0) &amp; (y8Q120a== 0) &amp; (y8Q120b== 0) ~ 0L;
+!is.na(y8Q119b) ~ 1L; 
+!is.na(y8Q119c) ~ 1L;
+y8Q120a== 1 ~ 1L;
+y8Q120b== 1 ~ 1L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>y8Q11a;_x000D_
+y8Q11b;_x000D_
+y8Q11c;_x000D_
+y8Q11d;_x000D_
+y8Q11e;_x000D_
+y8Q11f;_x000D_
+y8Q11g;_x000D_
+y8Q11h;_x000D_
+y8Q11i;_x000D_
+y8Q11j</t>
+  </si>
+  <si>
     <t>rowMeans(mutate(.,_x000D_
-temp_y8q11a = 50 * y8q11a - 50, _x000D_
-temp_y8q11b = 50 * y8q11b - 50,_x000D_
-temp_y8q11c = 50 * y8q11c - 50,_x000D_
-temp_y8q11d = 50 * y8q11d - 50,_x000D_
-temp_y8q11e = 50 * y8q11e - 50,_x000D_
-temp_y8q11f = 50 * y8q11f - 50,_x000D_
-temp_y8q11g = 50 * y8q11g - 50,_x000D_
-temp_y8q11h = 50 * y8q11h - 50,_x000D_
-temp_y8q11i = 50 * y8q11i - 50,_x000D_
-temp_y8q11j = 50 * y8q11j - 50) %&gt;%_x000D_
-select(temp_y8q11a, temp_y8q11b, temp_y8q11c, temp_y8q11d, temp_y8q11e,_x000D_
-temp_y8q11f, temp_y8q11g, temp_y8q11h, temp_y8q11i, temp_y8q11j), _x000D_
+temp_y8Q11a = 50 * y8Q11a - 50, _x000D_
+temp_y8Q11b = 50 * y8Q11b - 50,_x000D_
+temp_y8Q11c = 50 * y8Q11c - 50,_x000D_
+temp_y8Q11d = 50 * y8Q11d - 50,_x000D_
+temp_y8Q11e = 50 * y8Q11e - 50,_x000D_
+temp_y8Q11f = 50 * y8Q11f - 50,_x000D_
+temp_y8Q11g = 50 * y8Q11g - 50,_x000D_
+temp_y8Q11h = 50 * y8Q11h - 50,_x000D_
+temp_y8Q11i = 50 * y8Q11i - 50,_x000D_
+temp_y8Q11j = 50 * y8Q11j - 50) %&gt;%_x000D_
+select(temp_y8Q11a, temp_y8Q11b, temp_y8Q11c, temp_y8Q11d, temp_y8Q11e,_x000D_
+temp_y8Q11f, temp_y8Q11g, temp_y8Q11h, temp_y8Q11i, temp_y8Q11j), _x000D_
 na.rm = TRUE)</t>
   </si>
   <si>
     <t>rowSums(mutate(.,_x000D_
-temp_y8q11a = as.numeric(!is.na(y8q11a)), _x000D_
-temp_y8q11b = as.numeric(!is.na(y8q11b)),_x000D_
-temp_y8q11c = as.numeric(!is.na(y8q11c)),_x000D_
-temp_y8q11d = as.numeric(!is.na(y8q11d)),_x000D_
-temp_y8q11e = as.numeric(!is.na(y8q11e)),_x000D_
-temp_y8q11f = as.numeric(!is.na(y8q11f)),_x000D_
-temp_y8q11g = as.numeric(!is.na(y8q11g)),_x000D_
-temp_y8q11h = as.numeric(!is.na(y8q11h)),_x000D_
-temp_y8q11i = as.numeric(!is.na(y8q11i)),_x000D_
-temp_y8q11j = as.numeric(!is.na(y8q11j))) %&gt;%_x000D_
-select(temp_y8q11a, temp_y8q11b, temp_y8q11c, temp_y8q11d, temp_y8q11e,_x000D_
-temp_y8q11f, temp_y8q11g, temp_y8q11h, temp_y8q11i, temp_y8q11j), _x000D_
+temp_y8Q11a = as.numeric(!is.na(y8Q11a)), _x000D_
+temp_y8Q11b = as.numeric(!is.na(y8Q11b)),_x000D_
+temp_y8Q11c = as.numeric(!is.na(y8Q11c)),_x000D_
+temp_y8Q11d = as.numeric(!is.na(y8Q11d)),_x000D_
+temp_y8Q11e = as.numeric(!is.na(y8Q11e)),_x000D_
+temp_y8Q11f = as.numeric(!is.na(y8Q11f)),_x000D_
+temp_y8Q11g = as.numeric(!is.na(y8Q11g)),_x000D_
+temp_y8Q11h = as.numeric(!is.na(y8Q11h)),_x000D_
+temp_y8Q11i = as.numeric(!is.na(y8Q11i)),_x000D_
+temp_y8Q11j = as.numeric(!is.na(y8Q11j))) %&gt;%_x000D_
+select(temp_y8Q11a, temp_y8Q11b, temp_y8Q11c, temp_y8Q11d, temp_y8Q11e,_x000D_
+temp_y8Q11f, temp_y8Q11g, temp_y8Q11h, temp_y8Q11i, temp_y8Q11j), _x000D_
 na.rm = TRUE)</t>
   </si>
   <si>
-    <t>recode(0=NA; 1=1; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>The category "No" was not produced since the information is limited to the last 3 years.</t>
-  </si>
-  <si>
-    <t>Self-reported depression. Question is " In the last 3 years have you been diagnosed or treated for depression?" Response options: Yes, No;</t>
-  </si>
-  <si>
-    <t>Self-reported Depression</t>
-  </si>
-  <si>
-    <t>y8q24m</t>
-  </si>
-  <si>
-    <t>recode(1=1; 2=2; 3=3; 4=3; 5=3; 6=3; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>recode(1=2; 2=1; 3=1; 4=1; 5=1; 6=1; 7=1; ELSE=NA)</t>
+    <t>hdl_chol</t>
+  </si>
+  <si>
+    <t>ldl_chol</t>
+  </si>
+  <si>
+    <t>cholesterol ; hdl_chol ; Triglycerides</t>
+  </si>
+  <si>
+    <t>cholesterol - hdl_chol - (triglycerides/2.2)</t>
+  </si>
+  <si>
+    <t>D1_sleepqual</t>
+  </si>
+  <si>
+    <t>undetermined</t>
+  </si>
+  <si>
+    <t>y8sf</t>
   </si>
   <si>
     <t>case_when(
-(y8q119b == 0) &amp; (y8q119c == 0) &amp; (y8q120a== 0) &amp; (y8q120b== 0) ~ 0L;
-!is.na(y8q119b) ~ 1L; 
-!is.na(y8q119c) ~ 1L;
-y8q120a== 1 ~ 1L;
-y8q120b== 1 ~ 1L;
+y8Q24a == 1 ~ 1L; 
+y8Q24b == 1 ~ 1L;
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
     <t>case_when(
-y8q120a == 1 ~1L;
-y8q120b == 1 ~ 1L;
-(y8q120a == 0) &amp; (y8q120b == 0) ~ 0L;
+y8Q24a == 1 ~ 1L; 
+y8Q24b == 1 ~ 2L;
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
     <t>case_when(
-y8q119a &gt; 1 ~ 1L;
-y8q119a &lt;= 5 ~ 2L;
-y8q119a &gt;= 6 ~ 3L;
+y8Q24f == 1 ~ 1L; 
+y8Q24g == 1 ~ 1L;
+y8Q24h == 1 ~ 1L;
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
     <t>case_when(
-((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 == 0 ~ 0L;
-((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt; 0 &amp; ((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &lt; 1 ~ 1L;
-((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt;= 1 &amp; ((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &lt; 3 ~ 2L;
-((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt;= 3 &amp; ((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &lt; 5 ~ 3L;
-((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt;= 5 &amp; ((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &lt; 7 ~ 4L;
-((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt;= 7 ~ 5L;
+y8Q24c == 1 ~ 1L; 
+y8Q24d == 1 ~ 1L;
+y8Q24r == 1 ~ 1L;
 ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>floor(mpremage)</t>
   </si>
 </sst>
 </file>
@@ -1846,7 +1850,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1871,6 +1875,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1884,7 +1894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1921,6 +1931,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2265,10 +2278,10 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R82" sqref="R82"/>
+      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2376,7 +2389,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="8"/>
       <c r="J2" s="11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>23</v>
@@ -2399,7 +2412,7 @@
         <v>27</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -2450,7 +2463,7 @@
         <v>34</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -2542,13 +2555,13 @@
         <v>25</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>45</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="102" x14ac:dyDescent="0.25">
@@ -2576,7 +2589,7 @@
         <v>49</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>300</v>
@@ -2585,7 +2598,7 @@
         <v>301</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -2647,7 +2660,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2672,7 +2685,7 @@
         <v>60</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>303</v>
@@ -2681,7 +2694,7 @@
         <v>304</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -2695,7 +2708,7 @@
         <v>207</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -2809,16 +2822,16 @@
       <c r="H11" s="3"/>
       <c r="I11" s="8"/>
       <c r="J11" s="11" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>305</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -2905,7 +2918,7 @@
         <v>81</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>307</v>
@@ -2914,7 +2927,7 @@
         <v>308</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -2956,7 +2969,7 @@
         <v>85</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>307</v>
@@ -2965,7 +2978,7 @@
         <v>308</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -3007,16 +3020,16 @@
         <v>88</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>311</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -3030,7 +3043,7 @@
         <v>40</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -3323,10 +3336,10 @@
       <c r="H21" s="3"/>
       <c r="I21" s="8"/>
       <c r="J21" s="11" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>324</v>
@@ -3376,7 +3389,7 @@
         <v>94</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>323</v>
@@ -3401,7 +3414,7 @@
         <v>34</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -3517,7 +3530,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="8"/>
       <c r="J25" s="11" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>326</v>
@@ -3570,7 +3583,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="8"/>
       <c r="J26" s="11" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>328</v>
@@ -3625,7 +3638,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="8"/>
       <c r="J27" s="11" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>330</v>
@@ -3817,7 +3830,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="8"/>
       <c r="J31" s="11" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>334</v>
@@ -3870,7 +3883,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="8"/>
       <c r="J32" s="11" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>336</v>
@@ -3923,7 +3936,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="8"/>
       <c r="J33" s="11" t="s">
-        <v>398</v>
+        <v>474</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>338</v>
@@ -3976,7 +3989,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="8"/>
       <c r="J34" s="11" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>340</v>
@@ -4029,7 +4042,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="8"/>
       <c r="J35" s="11" t="s">
-        <v>400</v>
+        <v>476</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>342</v>
@@ -4056,7 +4069,7 @@
         <v>34</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -4084,7 +4097,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="8"/>
       <c r="J36" s="11" t="s">
-        <v>401</v>
+        <v>146</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>347</v>
@@ -4182,20 +4195,20 @@
       <c r="H38" s="3"/>
       <c r="I38" s="8"/>
       <c r="J38" s="11" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>349</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="11" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>25</v>
@@ -4235,16 +4248,16 @@
         <v>158</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>349</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -4258,7 +4271,7 @@
         <v>40</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
@@ -4286,20 +4299,20 @@
       <c r="H40" s="3"/>
       <c r="I40" s="8"/>
       <c r="J40" s="11" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>351</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="1" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>25</v>
@@ -4429,7 +4442,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="8"/>
       <c r="J43" s="11" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>353</v>
@@ -4438,7 +4451,7 @@
         <v>354</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -4480,7 +4493,7 @@
         <v>174</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>355</v>
@@ -4489,7 +4502,7 @@
         <v>356</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3" t="s">
@@ -4533,7 +4546,7 @@
         <v>178</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>358</v>
@@ -4542,7 +4555,7 @@
         <v>359</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -4584,7 +4597,7 @@
         <v>181</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>358</v>
@@ -4593,7 +4606,7 @@
         <v>359</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -4635,13 +4648,13 @@
       <c r="H47" s="3"/>
       <c r="I47" s="8"/>
       <c r="J47" s="11" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>362</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>363</v>
@@ -4658,7 +4671,7 @@
         <v>207</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
@@ -4686,16 +4699,16 @@
         <v>187</v>
       </c>
       <c r="J48" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>366</v>
-      </c>
       <c r="M48" s="8" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -4709,7 +4722,7 @@
         <v>40</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="256.5" x14ac:dyDescent="0.25">
@@ -4737,20 +4750,20 @@
         <v>191</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="N49" s="3"/>
       <c r="O49" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>25</v>
@@ -4762,7 +4775,7 @@
         <v>207</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="256.5" x14ac:dyDescent="0.25">
@@ -4790,19 +4803,19 @@
         <v>191</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P50" s="3" t="s">
         <v>25</v>
@@ -4814,10 +4827,10 @@
         <v>207</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -4842,16 +4855,16 @@
         <v>191</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="K51" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="L51" s="3" t="s">
-        <v>370</v>
-      </c>
       <c r="M51" s="8" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -4865,10 +4878,10 @@
         <v>207</v>
       </c>
       <c r="S51" s="11" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="85.5" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="57" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -4893,20 +4906,20 @@
         <v>200</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="K52" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>370</v>
-      </c>
       <c r="M52" s="8" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="N52" s="3"/>
       <c r="O52" s="3" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>25</v>
@@ -4918,7 +4931,7 @@
         <v>207</v>
       </c>
       <c r="S52" s="11" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="270.75" x14ac:dyDescent="0.25">
@@ -4946,16 +4959,16 @@
         <v>191</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
@@ -4969,7 +4982,7 @@
         <v>207</v>
       </c>
       <c r="S53" s="11" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
@@ -4997,16 +5010,16 @@
         <v>191</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="K54" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="L54" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="M54" s="8" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -5183,20 +5196,20 @@
         <v>191</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>476</v>
+        <v>437</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>50</v>
@@ -5208,7 +5221,7 @@
         <v>40</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -5277,13 +5290,13 @@
       <c r="H60" s="3"/>
       <c r="I60" s="8"/>
       <c r="J60" s="11" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>315</v>
@@ -5498,13 +5511,13 @@
       <c r="H65" s="3"/>
       <c r="I65" s="8"/>
       <c r="J65" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="K65" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="K65" s="3" t="s">
-        <v>375</v>
-      </c>
       <c r="L65" s="11" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>315</v>
@@ -5569,7 +5582,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -5593,36 +5606,36 @@
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="8"/>
-      <c r="J67" s="11" t="s">
-        <v>376</v>
+      <c r="J67" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>315</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="O67" s="3"/>
       <c r="P67" s="3" t="s">
-        <v>25</v>
+        <v>479</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>26</v>
+        <v>479</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>45</v>
+        <v>479</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -5646,33 +5659,33 @@
       <c r="I68" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="J68" s="11" t="s">
-        <v>376</v>
+      <c r="J68" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>315</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="O68" s="3"/>
       <c r="P68" s="3" t="s">
-        <v>25</v>
+        <v>479</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>50</v>
+        <v>479</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>207</v>
       </c>
       <c r="S68" s="11" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="199.5" x14ac:dyDescent="0.25">
@@ -5700,20 +5713,20 @@
         <v>241</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>379</v>
+        <v>478</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="M69" s="8" t="s">
         <v>315</v>
       </c>
       <c r="N69" s="3"/>
       <c r="O69" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>25</v>
@@ -5725,7 +5738,7 @@
         <v>40</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="51" x14ac:dyDescent="0.25">
@@ -6023,19 +6036,19 @@
       <c r="H76" s="3"/>
       <c r="I76" s="8"/>
       <c r="J76" s="11" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L76" s="13" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="M76" s="8" t="s">
         <v>315</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="O76" s="3"/>
       <c r="P76" s="3" t="s">
@@ -6048,7 +6061,7 @@
         <v>34</v>
       </c>
       <c r="S76" s="11" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="327.75" x14ac:dyDescent="0.25">
@@ -6074,19 +6087,19 @@
         <v>267</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L77" s="13" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>315</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="O77" s="3"/>
       <c r="P77" s="3" t="s">
@@ -6099,7 +6112,7 @@
         <v>207</v>
       </c>
       <c r="S77" s="11" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="342" x14ac:dyDescent="0.25">
@@ -6127,13 +6140,13 @@
         <v>271</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="M78" s="8"/>
       <c r="N78" s="3"/>
@@ -6148,7 +6161,7 @@
         <v>207</v>
       </c>
       <c r="S78" s="11" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
@@ -6221,16 +6234,16 @@
         <v>191</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="K80" s="11" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
@@ -6244,7 +6257,7 @@
         <v>207</v>
       </c>
       <c r="S80" s="11" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -6317,13 +6330,13 @@
         <v>191</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="M82" s="8" t="s">
         <v>315</v>
@@ -6340,10 +6353,10 @@
         <v>207</v>
       </c>
       <c r="S82" s="11" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="285" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -6366,14 +6379,14 @@
       <c r="H83" s="3"/>
       <c r="I83" s="8"/>
       <c r="J83" s="11" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="L83" s="3"/>
       <c r="M83" s="8" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
@@ -6390,7 +6403,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="285" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -6415,14 +6428,14 @@
       <c r="H84" s="3"/>
       <c r="I84" s="8"/>
       <c r="J84" s="11" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="L84" s="3"/>
       <c r="M84" s="8" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>

--- a/data_processing_elements-AWH.xlsx
+++ b/data_processing_elements-AWH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B04E32-EF9E-4776-82D2-5C2A0B2303A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEA8A28-50C4-4C24-B427-5F5873787EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="487">
   <si>
     <t>index</t>
   </si>
@@ -1658,13 +1658,6 @@
     <t>y8Q64atotmins; y8Q64btotmins</t>
   </si>
   <si>
-    <t>rowSums(mutate(.,_x000D_
-temp_y8Q64atotmins = y8Q64atotmins*5,_x000D_
-temp_y8Q64btotmins = y8Q64btotmins*2) %&gt;%_x000D_
-select(temp_y8Q64atotmins, temp_y8Q64btotmins),_x000D_
-na.rm=TRUE) / 7 / 60</t>
-  </si>
-  <si>
     <t>case_when(
 ((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 == 0 ~ 0L;
 ((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 &gt; 0 &amp; ((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 &lt; 1 ~ 1L;
@@ -1803,6 +1796,16 @@
   </si>
   <si>
     <t>floor(mpremage)</t>
+  </si>
+  <si>
+    <t>round(y8cesd10)</t>
+  </si>
+  <si>
+    <t>round(rowSums(mutate(.,
+temp_y8Q64atotmins = y8Q64atotmins*5,
+temp_y8Q64btotmins = y8Q64btotmins*2) %&gt;%
+select(temp_y8Q64atotmins, temp_y8Q64btotmins),
+na.rm=TRUE) / 7 / 60)</t>
   </si>
 </sst>
 </file>
@@ -2278,10 +2281,10 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomRight" activeCell="P76" sqref="P76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2561,7 +2564,7 @@
         <v>34</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="102" x14ac:dyDescent="0.25">
@@ -3936,7 +3939,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="8"/>
       <c r="J33" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>338</v>
@@ -3989,7 +3992,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="8"/>
       <c r="J34" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>340</v>
@@ -4042,7 +4045,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="8"/>
       <c r="J35" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>342</v>
@@ -4069,7 +4072,7 @@
         <v>34</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -4699,7 +4702,7 @@
         <v>187</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>364</v>
@@ -4775,7 +4778,7 @@
         <v>207</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="256.5" x14ac:dyDescent="0.25">
@@ -4827,7 +4830,7 @@
         <v>207</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="57" x14ac:dyDescent="0.25">
@@ -4878,7 +4881,7 @@
         <v>207</v>
       </c>
       <c r="S51" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="57" x14ac:dyDescent="0.25">
@@ -4931,7 +4934,7 @@
         <v>207</v>
       </c>
       <c r="S52" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="270.75" x14ac:dyDescent="0.25">
@@ -5307,13 +5310,13 @@
         <v>25</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>45</v>
+        <v>485</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -5623,16 +5626,16 @@
       </c>
       <c r="O67" s="3"/>
       <c r="P67" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="156.75" x14ac:dyDescent="0.25">
@@ -5676,10 +5679,10 @@
       </c>
       <c r="O68" s="3"/>
       <c r="P68" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>207</v>
@@ -5713,7 +5716,7 @@
         <v>241</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>377</v>
@@ -6061,7 +6064,7 @@
         <v>34</v>
       </c>
       <c r="S76" s="11" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="327.75" x14ac:dyDescent="0.25">
@@ -6112,7 +6115,7 @@
         <v>207</v>
       </c>
       <c r="S77" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="342" x14ac:dyDescent="0.25">
@@ -6140,7 +6143,7 @@
         <v>271</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>394</v>
@@ -6161,7 +6164,7 @@
         <v>207</v>
       </c>
       <c r="S78" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
@@ -6234,7 +6237,7 @@
         <v>191</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K80" s="11" t="s">
         <v>395</v>
@@ -6257,7 +6260,7 @@
         <v>207</v>
       </c>
       <c r="S80" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -6330,7 +6333,7 @@
         <v>191</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>396</v>
@@ -6353,7 +6356,7 @@
         <v>207</v>
       </c>
       <c r="S82" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="285" x14ac:dyDescent="0.25">
@@ -6379,7 +6382,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="8"/>
       <c r="J83" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K83" s="11" t="s">
         <v>397</v>
@@ -6400,7 +6403,7 @@
         <v>34</v>
       </c>
       <c r="S83" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="285" x14ac:dyDescent="0.25">
@@ -6428,7 +6431,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="8"/>
       <c r="J84" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>397</v>
@@ -6449,7 +6452,7 @@
         <v>34</v>
       </c>
       <c r="S84" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/data_processing_elements-AWH.xlsx
+++ b/data_processing_elements-AWH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEA8A28-50C4-4C24-B427-5F5873787EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5300495-6DAF-4721-B643-50EFAEB40EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="487">
   <si>
     <t>index</t>
   </si>
@@ -1655,19 +1655,6 @@
     <t>y8Q24m</t>
   </si>
   <si>
-    <t>y8Q64atotmins; y8Q64btotmins</t>
-  </si>
-  <si>
-    <t>case_when(
-((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 == 0 ~ 0L;
-((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 &gt; 0 &amp; ((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 &lt; 1 ~ 1L;
-((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 &gt;= 1 &amp; ((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 &lt; 3 ~ 2L;
-((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 &gt;= 3 &amp; ((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 &lt; 5 ~ 3L;
-((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 &gt;= 5 &amp; ((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 &lt; 7 ~ 4L;
-((y8Q64atotmins*5) + (y8Q64btotmins*2)) / 7 / 60 &gt;= 7 ~ 5L;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
     <t>y8Q119a</t>
   </si>
   <si>
@@ -1748,16 +1735,7 @@
 na.rm = TRUE)</t>
   </si>
   <si>
-    <t>hdl_chol</t>
-  </si>
-  <si>
     <t>ldl_chol</t>
-  </si>
-  <si>
-    <t>cholesterol ; hdl_chol ; Triglycerides</t>
-  </si>
-  <si>
-    <t>cholesterol - hdl_chol - (triglycerides/2.2)</t>
   </si>
   <si>
     <t>D1_sleepqual</t>
@@ -1801,11 +1779,33 @@
     <t>round(y8cesd10)</t>
   </si>
   <si>
+    <t>y8q64atotmins; y8q64btotmins</t>
+  </si>
+  <si>
     <t>round(rowSums(mutate(.,
-temp_y8Q64atotmins = y8Q64atotmins*5,
-temp_y8Q64btotmins = y8Q64btotmins*2) %&gt;%
-select(temp_y8Q64atotmins, temp_y8Q64btotmins),
+temp_y8q64atotmins = y8q64atotmins*5,
+temp_y8q64btotmins = y8q64btotmins*2) %&gt;%
+select(temp_y8q64atotmins, temp_y8q64btotmins),
 na.rm=TRUE) / 7 / 60)</t>
+  </si>
+  <si>
+    <t>case_when(
+((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 == 0 ~ 0L;
+((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt; 0 &amp; ((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &lt; 1 ~ 1L;
+((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt;= 1 &amp; ((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &lt; 3 ~ 2L;
+((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt;= 3 &amp; ((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &lt; 5 ~ 3L;
+((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt;= 5 &amp; ((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &lt; 7 ~ 4L;
+((y8q64atotmins*5) + (y8q64btotmins*2)) / 7 / 60 &gt;= 7 ~ 5L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>hdl_Chol</t>
+  </si>
+  <si>
+    <t>cholesterol - hdl_Chol - (triglycerides/2.2)</t>
+  </si>
+  <si>
+    <t>cholesterol ; hdl_Chol ; Triglycerides</t>
   </si>
 </sst>
 </file>
@@ -2281,10 +2281,10 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P76" sqref="P76"/>
+      <selection pane="bottomRight" activeCell="T68" sqref="T68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,7 +2564,7 @@
         <v>34</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="102" x14ac:dyDescent="0.25">
@@ -3939,7 +3939,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="8"/>
       <c r="J33" s="11" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>338</v>
@@ -3992,7 +3992,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="8"/>
       <c r="J34" s="11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>340</v>
@@ -4045,7 +4045,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="8"/>
       <c r="J35" s="11" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>342</v>
@@ -4072,7 +4072,7 @@
         <v>34</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -4702,7 +4702,7 @@
         <v>187</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>364</v>
@@ -4778,7 +4778,7 @@
         <v>207</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="256.5" x14ac:dyDescent="0.25">
@@ -4830,7 +4830,7 @@
         <v>207</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="57" x14ac:dyDescent="0.25">
@@ -4881,7 +4881,7 @@
         <v>207</v>
       </c>
       <c r="S51" s="11" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="57" x14ac:dyDescent="0.25">
@@ -4934,7 +4934,7 @@
         <v>207</v>
       </c>
       <c r="S52" s="11" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="270.75" x14ac:dyDescent="0.25">
@@ -5316,7 +5316,7 @@
         <v>34</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -5626,19 +5626,19 @@
       </c>
       <c r="O67" s="3"/>
       <c r="P67" s="3" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="156.75" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="399" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -5677,18 +5677,20 @@
       <c r="N68" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="O68" s="3"/>
+      <c r="O68" s="11" t="s">
+        <v>434</v>
+      </c>
       <c r="P68" s="3" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="S68" s="11" t="s">
-        <v>434</v>
+        <v>473</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="199.5" x14ac:dyDescent="0.25">
@@ -5716,7 +5718,7 @@
         <v>241</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>377</v>
@@ -6039,7 +6041,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="8"/>
       <c r="J76" s="11" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>380</v>
@@ -6064,7 +6066,7 @@
         <v>34</v>
       </c>
       <c r="S76" s="11" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="327.75" x14ac:dyDescent="0.25">
@@ -6090,7 +6092,7 @@
         <v>267</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>380</v>
@@ -6115,7 +6117,7 @@
         <v>207</v>
       </c>
       <c r="S77" s="11" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="342" x14ac:dyDescent="0.25">
@@ -6143,7 +6145,7 @@
         <v>271</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>394</v>
@@ -6164,7 +6166,7 @@
         <v>207</v>
       </c>
       <c r="S78" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
@@ -6237,7 +6239,7 @@
         <v>191</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K80" s="11" t="s">
         <v>395</v>
@@ -6260,7 +6262,7 @@
         <v>207</v>
       </c>
       <c r="S80" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -6333,7 +6335,7 @@
         <v>191</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>396</v>
@@ -6356,7 +6358,7 @@
         <v>207</v>
       </c>
       <c r="S82" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="285" x14ac:dyDescent="0.25">
@@ -6382,7 +6384,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="8"/>
       <c r="J83" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K83" s="11" t="s">
         <v>397</v>
@@ -6403,7 +6405,7 @@
         <v>34</v>
       </c>
       <c r="S83" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="285" x14ac:dyDescent="0.25">
@@ -6431,7 +6433,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="8"/>
       <c r="J84" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>397</v>
@@ -6452,7 +6454,7 @@
         <v>34</v>
       </c>
       <c r="S84" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/data_processing_elements-AWH.xlsx
+++ b/data_processing_elements-AWH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5300495-6DAF-4721-B643-50EFAEB40EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFCD12E-E0A1-4CD5-A2AA-4DE7E208D055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1577,9 +1577,6 @@
     <t>recode(1=1; 2=2; 3=3; 4=3; 5=3; 6=3; ELSE=NA)</t>
   </si>
   <si>
-    <t>recode(1=2; 2=1; 3=1; 4=1; 5=1; 6=1; 7=1; ELSE=NA)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sleep duration. Average sleep duration in hours derived from sleep diary. A participant reported the time they felt asleep and the time they got out of bed for 8 days using the sleep diary. This variable represents the average sleep duration for these days days. 
 </t>
   </si>
@@ -1600,9 +1597,6 @@
   </si>
   <si>
     <t>y8Q127</t>
-  </si>
-  <si>
-    <t>y8Q65</t>
   </si>
   <si>
     <t>y8Q121</t>
@@ -1806,6 +1800,12 @@
   </si>
   <si>
     <t>cholesterol ; hdl_Chol ; Triglycerides</t>
+  </si>
+  <si>
+    <t>recode(1=2; 2=1; 3=1; 4=1; 5=1; 6=1; 7=1; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>y8ariapgp</t>
   </si>
 </sst>
 </file>
@@ -2281,10 +2281,10 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T68" sqref="T68"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,7 +2564,7 @@
         <v>34</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="102" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>49</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>300</v>
@@ -2688,7 +2688,7 @@
         <v>60</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>303</v>
@@ -2711,7 +2711,7 @@
         <v>207</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -2825,7 +2825,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="8"/>
       <c r="J11" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>305</v>
@@ -2921,7 +2921,7 @@
         <v>81</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>307</v>
@@ -2972,7 +2972,7 @@
         <v>85</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>307</v>
@@ -3023,7 +3023,7 @@
         <v>88</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>447</v>
+        <v>486</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>311</v>
@@ -3046,7 +3046,7 @@
         <v>40</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -3939,7 +3939,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="8"/>
       <c r="J33" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>338</v>
@@ -3992,7 +3992,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="8"/>
       <c r="J34" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>340</v>
@@ -4045,7 +4045,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="8"/>
       <c r="J35" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>342</v>
@@ -4072,7 +4072,7 @@
         <v>34</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -4198,7 +4198,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="8"/>
       <c r="J38" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>349</v>
@@ -4251,7 +4251,7 @@
         <v>158</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>349</v>
@@ -4302,7 +4302,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="8"/>
       <c r="J40" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>351</v>
@@ -4445,7 +4445,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="8"/>
       <c r="J43" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>353</v>
@@ -4496,7 +4496,7 @@
         <v>174</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>355</v>
@@ -4549,7 +4549,7 @@
         <v>178</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>358</v>
@@ -4600,7 +4600,7 @@
         <v>181</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>358</v>
@@ -4651,7 +4651,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="8"/>
       <c r="J47" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>362</v>
@@ -4674,7 +4674,7 @@
         <v>207</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
@@ -4702,7 +4702,7 @@
         <v>187</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>364</v>
@@ -4753,7 +4753,7 @@
         <v>191</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>390</v>
@@ -4778,7 +4778,7 @@
         <v>207</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="256.5" x14ac:dyDescent="0.25">
@@ -4806,7 +4806,7 @@
         <v>191</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>391</v>
@@ -4830,7 +4830,7 @@
         <v>207</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="57" x14ac:dyDescent="0.25">
@@ -4858,7 +4858,7 @@
         <v>191</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>368</v>
@@ -4881,7 +4881,7 @@
         <v>207</v>
       </c>
       <c r="S51" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="57" x14ac:dyDescent="0.25">
@@ -4909,7 +4909,7 @@
         <v>200</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>368</v>
@@ -4934,7 +4934,7 @@
         <v>207</v>
       </c>
       <c r="S52" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="270.75" x14ac:dyDescent="0.25">
@@ -4962,7 +4962,7 @@
         <v>191</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>392</v>
@@ -4985,7 +4985,7 @@
         <v>207</v>
       </c>
       <c r="S53" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
@@ -5013,7 +5013,7 @@
         <v>191</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>370</v>
@@ -5199,7 +5199,7 @@
         <v>191</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>438</v>
@@ -5316,7 +5316,7 @@
         <v>34</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -5616,7 +5616,7 @@
         <v>375</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>315</v>
@@ -5626,16 +5626,16 @@
       </c>
       <c r="O67" s="3"/>
       <c r="P67" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="399" x14ac:dyDescent="0.25">
@@ -5681,16 +5681,16 @@
         <v>434</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="199.5" x14ac:dyDescent="0.25">
@@ -5718,7 +5718,7 @@
         <v>241</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>377</v>
@@ -6041,7 +6041,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="8"/>
       <c r="J76" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>380</v>
@@ -6066,7 +6066,7 @@
         <v>34</v>
       </c>
       <c r="S76" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="327.75" x14ac:dyDescent="0.25">
@@ -6092,7 +6092,7 @@
         <v>267</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>380</v>
@@ -6117,7 +6117,7 @@
         <v>207</v>
       </c>
       <c r="S77" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="342" x14ac:dyDescent="0.25">
@@ -6145,7 +6145,7 @@
         <v>271</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>394</v>
@@ -6166,7 +6166,7 @@
         <v>207</v>
       </c>
       <c r="S78" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
@@ -6239,7 +6239,7 @@
         <v>191</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K80" s="11" t="s">
         <v>395</v>
@@ -6262,7 +6262,7 @@
         <v>207</v>
       </c>
       <c r="S80" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -6335,7 +6335,7 @@
         <v>191</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>396</v>
@@ -6358,7 +6358,7 @@
         <v>207</v>
       </c>
       <c r="S82" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="285" x14ac:dyDescent="0.25">
@@ -6384,7 +6384,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="8"/>
       <c r="J83" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K83" s="11" t="s">
         <v>397</v>
@@ -6405,7 +6405,7 @@
         <v>34</v>
       </c>
       <c r="S83" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="285" x14ac:dyDescent="0.25">
@@ -6433,7 +6433,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="8"/>
       <c r="J84" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>397</v>
@@ -6454,7 +6454,7 @@
         <v>34</v>
       </c>
       <c r="S84" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/data_processing_elements-AWH.xlsx
+++ b/data_processing_elements-AWH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFCD12E-E0A1-4CD5-A2AA-4DE7E208D055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266E02B8-5745-4F62-BF71-D23F00BF0630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1649,16 +1649,6 @@
     <t>y8Q24m</t>
   </si>
   <si>
-    <t>y8Q119a</t>
-  </si>
-  <si>
-    <t>case_when(
-y8Q119a &gt; 1 ~ 1L;
-y8Q119a &lt;= 5 ~ 2L;
-y8Q119a &gt;= 6 ~ 3L;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
     <t>y8Q120a;_x000D_
 y8Q120b</t>
   </si>
@@ -1667,21 +1657,6 @@
 y8Q120a == 1 ~1L;
 y8Q120b == 1 ~ 1L;
 (y8Q120a == 0) &amp; (y8Q120b == 0) ~ 0L;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>y8Q119b; _x000D_
-y8Q119c;_x000D_
-y8Q120a;_x000D_
-y8Q120b</t>
-  </si>
-  <si>
-    <t>case_when(
-(y8Q119b == 0) &amp; (y8Q119c == 0) &amp; (y8Q120a== 0) &amp; (y8Q120b== 0) ~ 0L;
-!is.na(y8Q119b) ~ 1L; 
-!is.na(y8Q119c) ~ 1L;
-y8Q120a== 1 ~ 1L;
-y8Q120b== 1 ~ 1L;
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
@@ -1796,9 +1771,6 @@
     <t>hdl_Chol</t>
   </si>
   <si>
-    <t>cholesterol - hdl_Chol - (triglycerides/2.2)</t>
-  </si>
-  <si>
     <t>cholesterol ; hdl_Chol ; Triglycerides</t>
   </si>
   <si>
@@ -1806,6 +1778,34 @@
   </si>
   <si>
     <t>y8ariapgp</t>
+  </si>
+  <si>
+    <t>cholesterol - hdl_Chol - (Triglycerides/2.2)</t>
+  </si>
+  <si>
+    <t>y8q119b; 
+y8q119c;
+y8Q120a;
+y8Q120b</t>
+  </si>
+  <si>
+    <t>y8q119a</t>
+  </si>
+  <si>
+    <t>case_when(
+y8q119a &gt; 1 ~ 1L;
+y8q119a &lt;= 5 ~ 2L;
+y8q119a &gt;= 6 ~ 3L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>case_when(
+(y8q119b == 0) &amp; (y8q119c == 0) &amp; (y8Q120a== 0) &amp; (y8Q120b== 0) ~ 0L;
+!is.na(y8q119b) ~ 1L; 
+!is.na(y8q119c) ~ 1L;
+y8Q120a== 1 ~ 1L;
+y8Q120b== 1 ~ 1L;
+ELSE ~ NA_integer_)</t>
   </si>
 </sst>
 </file>
@@ -2281,10 +2281,10 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,7 +2564,7 @@
         <v>34</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="102" x14ac:dyDescent="0.25">
@@ -3023,7 +3023,7 @@
         <v>88</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>311</v>
@@ -3046,7 +3046,7 @@
         <v>40</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -3939,7 +3939,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="8"/>
       <c r="J33" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>338</v>
@@ -3992,7 +3992,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="8"/>
       <c r="J34" s="11" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>340</v>
@@ -4045,7 +4045,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="8"/>
       <c r="J35" s="11" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>342</v>
@@ -4072,7 +4072,7 @@
         <v>34</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -4702,7 +4702,7 @@
         <v>187</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>364</v>
@@ -4778,7 +4778,7 @@
         <v>207</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="256.5" x14ac:dyDescent="0.25">
@@ -4830,7 +4830,7 @@
         <v>207</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="57" x14ac:dyDescent="0.25">
@@ -4881,7 +4881,7 @@
         <v>207</v>
       </c>
       <c r="S51" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="57" x14ac:dyDescent="0.25">
@@ -4934,7 +4934,7 @@
         <v>207</v>
       </c>
       <c r="S52" s="11" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="270.75" x14ac:dyDescent="0.25">
@@ -5316,7 +5316,7 @@
         <v>34</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -5626,16 +5626,16 @@
       </c>
       <c r="O67" s="3"/>
       <c r="P67" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="399" x14ac:dyDescent="0.25">
@@ -5681,16 +5681,16 @@
         <v>434</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="199.5" x14ac:dyDescent="0.25">
@@ -5718,7 +5718,7 @@
         <v>241</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>377</v>
@@ -6041,7 +6041,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="8"/>
       <c r="J76" s="11" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>380</v>
@@ -6066,7 +6066,7 @@
         <v>34</v>
       </c>
       <c r="S76" s="11" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="327.75" x14ac:dyDescent="0.25">
@@ -6092,7 +6092,7 @@
         <v>267</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>380</v>
@@ -6117,7 +6117,7 @@
         <v>207</v>
       </c>
       <c r="S77" s="11" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="342" x14ac:dyDescent="0.25">
@@ -6145,7 +6145,7 @@
         <v>271</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>394</v>
@@ -6166,7 +6166,7 @@
         <v>207</v>
       </c>
       <c r="S78" s="11" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
@@ -6239,7 +6239,7 @@
         <v>191</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K80" s="11" t="s">
         <v>395</v>
@@ -6262,7 +6262,7 @@
         <v>207</v>
       </c>
       <c r="S80" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -6335,7 +6335,7 @@
         <v>191</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>396</v>
@@ -6358,7 +6358,7 @@
         <v>207</v>
       </c>
       <c r="S82" s="11" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="285" x14ac:dyDescent="0.25">
@@ -6384,7 +6384,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="8"/>
       <c r="J83" s="11" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K83" s="11" t="s">
         <v>397</v>
@@ -6405,7 +6405,7 @@
         <v>34</v>
       </c>
       <c r="S83" s="11" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="285" x14ac:dyDescent="0.25">
@@ -6433,7 +6433,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="8"/>
       <c r="J84" s="11" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>397</v>
@@ -6454,7 +6454,7 @@
         <v>34</v>
       </c>
       <c r="S84" s="11" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/data_processing_elements-AWH.xlsx
+++ b/data_processing_elements-AWH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266E02B8-5745-4F62-BF71-D23F00BF0630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7262B980-4D1E-48E0-99E0-87B82C04D451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1574,9 +1574,6 @@
     <t>Self-reported Depression</t>
   </si>
   <si>
-    <t>recode(1=1; 2=2; 3=3; 4=3; 5=3; 6=3; ELSE=NA)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sleep duration. Average sleep duration in hours derived from sleep diary. A participant reported the time they felt asleep and the time they got out of bed for 8 days using the sleep diary. This variable represents the average sleep duration for these days days. 
 </t>
   </si>
@@ -1806,6 +1803,9 @@
 y8Q120a== 1 ~ 1L;
 y8Q120b== 1 ~ 1L;
 ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>recode(1=1; 2=NA; 3=3; 4=3; 5=3; 6=3; ELSE=NA)</t>
   </si>
 </sst>
 </file>
@@ -2281,10 +2281,10 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
+      <selection pane="bottomRight" activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,7 +2564,7 @@
         <v>34</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="102" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>49</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>300</v>
@@ -2688,7 +2688,7 @@
         <v>60</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>303</v>
@@ -2711,7 +2711,7 @@
         <v>207</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -2825,7 +2825,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="8"/>
       <c r="J11" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>305</v>
@@ -2921,7 +2921,7 @@
         <v>81</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>307</v>
@@ -2972,7 +2972,7 @@
         <v>85</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>307</v>
@@ -3023,7 +3023,7 @@
         <v>88</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>311</v>
@@ -3046,7 +3046,7 @@
         <v>40</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -3939,7 +3939,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="8"/>
       <c r="J33" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>338</v>
@@ -3992,7 +3992,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="8"/>
       <c r="J34" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>340</v>
@@ -4045,7 +4045,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="8"/>
       <c r="J35" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>342</v>
@@ -4072,7 +4072,7 @@
         <v>34</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -4198,7 +4198,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="8"/>
       <c r="J38" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>349</v>
@@ -4251,7 +4251,7 @@
         <v>158</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>349</v>
@@ -4274,7 +4274,7 @@
         <v>40</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
@@ -4302,7 +4302,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="8"/>
       <c r="J40" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>351</v>
@@ -4445,7 +4445,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="8"/>
       <c r="J43" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>353</v>
@@ -4496,7 +4496,7 @@
         <v>174</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>355</v>
@@ -4549,7 +4549,7 @@
         <v>178</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>358</v>
@@ -4600,7 +4600,7 @@
         <v>181</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>358</v>
@@ -4651,7 +4651,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="8"/>
       <c r="J47" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>362</v>
@@ -4674,7 +4674,7 @@
         <v>207</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
@@ -4702,7 +4702,7 @@
         <v>187</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>364</v>
@@ -4753,7 +4753,7 @@
         <v>191</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>390</v>
@@ -4778,7 +4778,7 @@
         <v>207</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="256.5" x14ac:dyDescent="0.25">
@@ -4806,7 +4806,7 @@
         <v>191</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>391</v>
@@ -4830,7 +4830,7 @@
         <v>207</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="57" x14ac:dyDescent="0.25">
@@ -4858,7 +4858,7 @@
         <v>191</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>368</v>
@@ -4881,7 +4881,7 @@
         <v>207</v>
       </c>
       <c r="S51" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="57" x14ac:dyDescent="0.25">
@@ -4909,7 +4909,7 @@
         <v>200</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>368</v>
@@ -4934,7 +4934,7 @@
         <v>207</v>
       </c>
       <c r="S52" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="270.75" x14ac:dyDescent="0.25">
@@ -4962,7 +4962,7 @@
         <v>191</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>392</v>
@@ -4985,7 +4985,7 @@
         <v>207</v>
       </c>
       <c r="S53" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
@@ -5013,7 +5013,7 @@
         <v>191</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>370</v>
@@ -5199,7 +5199,7 @@
         <v>191</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>438</v>
@@ -5316,7 +5316,7 @@
         <v>34</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -5616,7 +5616,7 @@
         <v>375</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>315</v>
@@ -5626,16 +5626,16 @@
       </c>
       <c r="O67" s="3"/>
       <c r="P67" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="399" x14ac:dyDescent="0.25">
@@ -5681,16 +5681,16 @@
         <v>434</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="199.5" x14ac:dyDescent="0.25">
@@ -5718,7 +5718,7 @@
         <v>241</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>377</v>
@@ -6041,7 +6041,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="8"/>
       <c r="J76" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>380</v>
@@ -6066,7 +6066,7 @@
         <v>34</v>
       </c>
       <c r="S76" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="327.75" x14ac:dyDescent="0.25">
@@ -6092,7 +6092,7 @@
         <v>267</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>380</v>
@@ -6117,7 +6117,7 @@
         <v>207</v>
       </c>
       <c r="S77" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="342" x14ac:dyDescent="0.25">
@@ -6145,7 +6145,7 @@
         <v>271</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>394</v>
@@ -6166,7 +6166,7 @@
         <v>207</v>
       </c>
       <c r="S78" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
@@ -6239,7 +6239,7 @@
         <v>191</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K80" s="11" t="s">
         <v>395</v>
@@ -6262,7 +6262,7 @@
         <v>207</v>
       </c>
       <c r="S80" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -6335,7 +6335,7 @@
         <v>191</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>396</v>
@@ -6358,7 +6358,7 @@
         <v>207</v>
       </c>
       <c r="S82" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="285" x14ac:dyDescent="0.25">
@@ -6384,7 +6384,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="8"/>
       <c r="J83" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K83" s="11" t="s">
         <v>397</v>
@@ -6405,7 +6405,7 @@
         <v>34</v>
       </c>
       <c r="S83" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="285" x14ac:dyDescent="0.25">
@@ -6433,7 +6433,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="8"/>
       <c r="J84" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>397</v>
@@ -6454,7 +6454,7 @@
         <v>34</v>
       </c>
       <c r="S84" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/data_processing_elements-AWH.xlsx
+++ b/data_processing_elements-AWH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7262B980-4D1E-48E0-99E0-87B82C04D451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB833AAF-FFCD-409D-B763-94EE9EFCB596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="487">
   <si>
     <t>index</t>
   </si>
@@ -1707,9 +1707,6 @@
     <t>D1_sleepqual</t>
   </si>
   <si>
-    <t>undetermined</t>
-  </si>
-  <si>
     <t>y8sf</t>
   </si>
   <si>
@@ -1806,6 +1803,9 @@
   </si>
   <si>
     <t>recode(1=1; 2=NA; 3=3; 4=3; 5=3; 6=3; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>sleep_duration_hours</t>
   </si>
 </sst>
 </file>
@@ -1853,7 +1853,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1875,12 +1875,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC99FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1936,7 +1930,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2281,10 +2275,10 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q39" sqref="Q39"/>
+      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,7 +2558,7 @@
         <v>34</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="102" x14ac:dyDescent="0.25">
@@ -3023,7 +3017,7 @@
         <v>88</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>311</v>
@@ -3046,7 +3040,7 @@
         <v>40</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -3939,7 +3933,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="8"/>
       <c r="J33" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>338</v>
@@ -4045,7 +4039,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="8"/>
       <c r="J35" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>342</v>
@@ -4072,7 +4066,7 @@
         <v>34</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -4190,7 +4184,7 @@
         <v>152</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>153</v>
@@ -4274,7 +4268,7 @@
         <v>40</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
@@ -4294,7 +4288,7 @@
         <v>161</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>153</v>
@@ -4702,7 +4696,7 @@
         <v>187</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>364</v>
@@ -4778,7 +4772,7 @@
         <v>207</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="256.5" x14ac:dyDescent="0.25">
@@ -4830,7 +4824,7 @@
         <v>207</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="57" x14ac:dyDescent="0.25">
@@ -4881,7 +4875,7 @@
         <v>207</v>
       </c>
       <c r="S51" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="57" x14ac:dyDescent="0.25">
@@ -4934,7 +4928,7 @@
         <v>207</v>
       </c>
       <c r="S52" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="270.75" x14ac:dyDescent="0.25">
@@ -5316,7 +5310,7 @@
         <v>34</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -5610,7 +5604,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="8"/>
       <c r="J67" s="14" t="s">
-        <v>55</v>
+        <v>486</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>375</v>
@@ -5626,19 +5620,19 @@
       </c>
       <c r="O67" s="3"/>
       <c r="P67" s="3" t="s">
-        <v>466</v>
+        <v>25</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>466</v>
+        <v>26</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>466</v>
+        <v>45</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="399" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -5663,7 +5657,7 @@
         <v>238</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>55</v>
+        <v>486</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>375</v>
@@ -5677,20 +5671,17 @@
       <c r="N68" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="O68" s="11" t="s">
+      <c r="P68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="S68" s="11" t="s">
         <v>434</v>
-      </c>
-      <c r="P68" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q68" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="R68" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="S68" s="3" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="199.5" x14ac:dyDescent="0.25">
@@ -6041,7 +6032,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="8"/>
       <c r="J76" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>380</v>
@@ -6066,7 +6057,7 @@
         <v>34</v>
       </c>
       <c r="S76" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="327.75" x14ac:dyDescent="0.25">
@@ -6092,7 +6083,7 @@
         <v>267</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>380</v>
@@ -6117,7 +6108,7 @@
         <v>207</v>
       </c>
       <c r="S77" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="342" x14ac:dyDescent="0.25">
@@ -6145,7 +6136,7 @@
         <v>271</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>394</v>
@@ -6166,7 +6157,7 @@
         <v>207</v>
       </c>
       <c r="S78" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
@@ -6335,7 +6326,7 @@
         <v>191</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>396</v>
@@ -6358,7 +6349,7 @@
         <v>207</v>
       </c>
       <c r="S82" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="285" x14ac:dyDescent="0.25">

--- a/data_processing_elements-AWH.xlsx
+++ b/data_processing_elements-AWH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB833AAF-FFCD-409D-B763-94EE9EFCB596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B4222E-8C28-4688-8C88-DAE9FF7C482D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -1550,18 +1550,6 @@
     <t>The category "Other" could not pe produced.</t>
   </si>
   <si>
-    <t>case_when( sleepduration &gt;= 0 &amp; sleepduration &lt; 6.25 ~ 1L;_x000D_
-sleepduration &gt;= 6.25 &amp; sleepduration &lt; 6.75 ~ 2L;_x000D_
-sleepduration &gt;= 6.75 &amp; sleepduration &lt; 7.25 ~ 3L;_x000D_
-sleepduration &gt;= 7.25 &amp; sleepduration &lt; 7.75 ~ 4L;_x000D_
-sleepduration &gt;= 7.75 &amp; sleepduration &lt; 8.25 ~ 5L;_x000D_
-sleepduration &gt;= 8.25 &amp; sleepduration &lt; 8.75 ~ 6L;_x000D_
-sleepduration &gt;= 8.75 &amp; sleepduration &lt; 9.25 ~ 7L;_x000D_
-sleepduration &gt;= 9.25 &amp; sleepduration &lt; 9.75 ~ 8L;_x000D_
-sleepduration &gt;= 9.75 ~ 9L;_x000D_
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
     <t>recode(0=NA; 1=1; ELSE=NA)</t>
   </si>
   <si>
@@ -1787,13 +1775,6 @@
   </si>
   <si>
     <t>case_when(
-y8q119a &gt; 1 ~ 1L;
-y8q119a &lt;= 5 ~ 2L;
-y8q119a &gt;= 6 ~ 3L;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>case_when(
 (y8q119b == 0) &amp; (y8q119c == 0) &amp; (y8Q120a== 0) &amp; (y8Q120b== 0) ~ 0L;
 !is.na(y8q119b) ~ 1L; 
 !is.na(y8q119c) ~ 1L;
@@ -1805,7 +1786,17 @@
     <t>recode(1=1; 2=NA; 3=3; 4=3; 5=3; 6=3; ELSE=NA)</t>
   </si>
   <si>
-    <t>sleep_duration_hours</t>
+    <t>undetermined</t>
+  </si>
+  <si>
+    <t>waistmmave/10</t>
+  </si>
+  <si>
+    <t>case_when(
+y8q119a &lt; 1 ~ 1L;
+y8q119a &gt;= 6 ~ 3L;
+y8q119a &gt;= 1 ~ 2L;
+ELSE ~ NA_integer_)</t>
   </si>
 </sst>
 </file>
@@ -1891,7 +1882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1928,9 +1919,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2274,11 +2262,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E8173B-75E7-48BF-A0E5-5399D58BE189}">
   <dimension ref="A1:S84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2558,7 +2546,7 @@
         <v>34</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="102" x14ac:dyDescent="0.25">
@@ -2586,7 +2574,7 @@
         <v>49</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>300</v>
@@ -2682,7 +2670,7 @@
         <v>60</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>303</v>
@@ -2705,7 +2693,7 @@
         <v>207</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -2819,7 +2807,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="8"/>
       <c r="J11" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>305</v>
@@ -2915,7 +2903,7 @@
         <v>81</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>307</v>
@@ -2966,7 +2954,7 @@
         <v>85</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>307</v>
@@ -3017,7 +3005,7 @@
         <v>88</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>311</v>
@@ -3040,7 +3028,7 @@
         <v>40</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -3352,13 +3340,13 @@
         <v>25</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -3933,7 +3921,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="8"/>
       <c r="J33" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>338</v>
@@ -3986,7 +3974,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="8"/>
       <c r="J34" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>340</v>
@@ -4039,7 +4027,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="8"/>
       <c r="J35" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>342</v>
@@ -4066,7 +4054,7 @@
         <v>34</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -4192,7 +4180,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="8"/>
       <c r="J38" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>349</v>
@@ -4245,7 +4233,7 @@
         <v>158</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>349</v>
@@ -4268,7 +4256,7 @@
         <v>40</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
@@ -4296,7 +4284,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="8"/>
       <c r="J40" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>351</v>
@@ -4439,7 +4427,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="8"/>
       <c r="J43" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>353</v>
@@ -4490,7 +4478,7 @@
         <v>174</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>355</v>
@@ -4543,7 +4531,7 @@
         <v>178</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>358</v>
@@ -4594,7 +4582,7 @@
         <v>181</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>358</v>
@@ -4645,7 +4633,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="8"/>
       <c r="J47" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>362</v>
@@ -4668,7 +4656,7 @@
         <v>207</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
@@ -4696,7 +4684,7 @@
         <v>187</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>364</v>
@@ -4747,7 +4735,7 @@
         <v>191</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>390</v>
@@ -4772,7 +4760,7 @@
         <v>207</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="256.5" x14ac:dyDescent="0.25">
@@ -4800,7 +4788,7 @@
         <v>191</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>391</v>
@@ -4824,7 +4812,7 @@
         <v>207</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="57" x14ac:dyDescent="0.25">
@@ -4852,7 +4840,7 @@
         <v>191</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>368</v>
@@ -4875,7 +4863,7 @@
         <v>207</v>
       </c>
       <c r="S51" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="57" x14ac:dyDescent="0.25">
@@ -4903,7 +4891,7 @@
         <v>200</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>368</v>
@@ -4928,7 +4916,7 @@
         <v>207</v>
       </c>
       <c r="S52" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="270.75" x14ac:dyDescent="0.25">
@@ -4956,7 +4944,7 @@
         <v>191</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>392</v>
@@ -4979,7 +4967,7 @@
         <v>207</v>
       </c>
       <c r="S53" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
@@ -5007,7 +4995,7 @@
         <v>191</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>370</v>
@@ -5193,20 +5181,20 @@
         <v>191</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>425</v>
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>50</v>
@@ -5218,7 +5206,7 @@
         <v>40</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -5310,7 +5298,7 @@
         <v>34</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -5603,14 +5591,14 @@
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="8"/>
-      <c r="J67" s="14" t="s">
-        <v>486</v>
+      <c r="J67" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>375</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>315</v>
@@ -5620,16 +5608,16 @@
       </c>
       <c r="O67" s="3"/>
       <c r="P67" s="3" t="s">
-        <v>25</v>
+        <v>484</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>26</v>
+        <v>484</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>45</v>
+        <v>484</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>45</v>
+        <v>484</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="156.75" x14ac:dyDescent="0.25">
@@ -5656,8 +5644,8 @@
       <c r="I68" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="J68" s="14" t="s">
-        <v>486</v>
+      <c r="J68" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>375</v>
@@ -5672,16 +5660,16 @@
         <v>376</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>25</v>
+        <v>484</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>50</v>
+        <v>484</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="S68" s="11" t="s">
-        <v>434</v>
+        <v>484</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="199.5" x14ac:dyDescent="0.25">
@@ -5709,7 +5697,7 @@
         <v>241</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>377</v>
@@ -6032,7 +6020,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="8"/>
       <c r="J76" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>380</v>
@@ -6057,7 +6045,7 @@
         <v>34</v>
       </c>
       <c r="S76" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="327.75" x14ac:dyDescent="0.25">
@@ -6083,7 +6071,7 @@
         <v>267</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>380</v>
@@ -6108,7 +6096,7 @@
         <v>207</v>
       </c>
       <c r="S77" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="342" x14ac:dyDescent="0.25">
@@ -6136,7 +6124,7 @@
         <v>271</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>394</v>
@@ -6157,7 +6145,7 @@
         <v>207</v>
       </c>
       <c r="S78" s="11" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
@@ -6230,7 +6218,7 @@
         <v>191</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K80" s="11" t="s">
         <v>395</v>
@@ -6253,7 +6241,7 @@
         <v>207</v>
       </c>
       <c r="S80" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
@@ -6326,7 +6314,7 @@
         <v>191</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>396</v>
@@ -6349,7 +6337,7 @@
         <v>207</v>
       </c>
       <c r="S82" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="285" x14ac:dyDescent="0.25">
@@ -6375,7 +6363,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="8"/>
       <c r="J83" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K83" s="11" t="s">
         <v>397</v>
@@ -6396,7 +6384,7 @@
         <v>34</v>
       </c>
       <c r="S83" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="285" x14ac:dyDescent="0.25">
@@ -6424,7 +6412,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="8"/>
       <c r="J84" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>397</v>
@@ -6445,7 +6433,7 @@
         <v>34</v>
       </c>
       <c r="S84" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
